--- a/DATAs/AlGaN_HEMT/AlGaN_AlGaN_AlN_HEMT/nnp/2DEHG_density/OneDim/sim_post_process_data.xlsx
+++ b/DATAs/AlGaN_HEMT/AlGaN_AlGaN_AlN_HEMT/nnp/2DEHG_density/OneDim/sim_post_process_data.xlsx
@@ -22,6 +22,8 @@
     <sheet name="idoping_C_sweep__IntentionalDopingBCConcentration" sheetId="13" state="visible" r:id="rId13"/>
     <sheet name="sim_sweep__ThicknessAlNSub" sheetId="14" state="visible" r:id="rId14"/>
     <sheet name="end_bc_Schottky_sweep__ThicknessAlNSub" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="GaN_C_sweep__AlContentBarrier" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="GaN_C_sweep__AlContentBarrier__ThicknessAlGaNBarrier" sheetId="17" state="visible" r:id="rId17"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -13099,6 +13101,6127 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AlContentBarrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>2DEG_device</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2DEG_BC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2DEG_SC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2DHG_device</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2DHG_BC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2DHG_SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>697971520000</v>
+      </c>
+      <c r="D2" t="n">
+        <v>697971040000</v>
+      </c>
+      <c r="E2" t="n">
+        <v>9.010125699999999e-42</v>
+      </c>
+      <c r="F2" t="n">
+        <v>55102024000000</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.7999491e-42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>55102023000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2386941200000</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2386940300000</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.483717e-42</v>
+      </c>
+      <c r="F3" t="n">
+        <v>55099458000000</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1.0467435e-42</v>
+      </c>
+      <c r="H3" t="n">
+        <v>55099456000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4224318000000</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4224317000000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.6819843e-42</v>
+      </c>
+      <c r="F4" t="n">
+        <v>55098421000000</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8.4595081e-43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>55098420000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>6188604500000</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6188603300000</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9.8348178e-42</v>
+      </c>
+      <c r="F5" t="n">
+        <v>55097637000000</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7.206354500000001e-43</v>
+      </c>
+      <c r="H5" t="n">
+        <v>55097636000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8276025800000</v>
+      </c>
+      <c r="D6" t="n">
+        <v>8276024500000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9.9688969e-42</v>
+      </c>
+      <c r="F6" t="n">
+        <v>55096959000000</v>
+      </c>
+      <c r="G6" t="n">
+        <v>6.2741728e-43</v>
+      </c>
+      <c r="H6" t="n">
+        <v>55096958000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10485817000000</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10485816000000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.0086636e-41</v>
+      </c>
+      <c r="F7" t="n">
+        <v>55096372000000</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5.5641883e-43</v>
+      </c>
+      <c r="H7" t="n">
+        <v>55096370000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C8" t="n">
+        <v>12818118000000</v>
+      </c>
+      <c r="D8" t="n">
+        <v>12818117000000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.0187004e-41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>55095876000000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>5.0283495e-43</v>
+      </c>
+      <c r="H8" t="n">
+        <v>55095875000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C9" t="n">
+        <v>15273369000000</v>
+      </c>
+      <c r="D9" t="n">
+        <v>15273367000000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1.0270298e-41</v>
+      </c>
+      <c r="F9" t="n">
+        <v>55095469000000</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4.6265995e-43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>55095467000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17852104000000</v>
+      </c>
+      <c r="D10" t="n">
+        <v>17852102000000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.0338601e-41</v>
+      </c>
+      <c r="F10" t="n">
+        <v>55095137000000</v>
+      </c>
+      <c r="G10" t="n">
+        <v>4.3234183e-43</v>
+      </c>
+      <c r="H10" t="n">
+        <v>55095136000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C11" t="n">
+        <v>20554874000000</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20554872000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.0395023e-41</v>
+      </c>
+      <c r="F11" t="n">
+        <v>55094865000000</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.0894081e-43</v>
+      </c>
+      <c r="H11" t="n">
+        <v>55094863000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C12" t="n">
+        <v>23382229000000</v>
+      </c>
+      <c r="D12" t="n">
+        <v>23382227000000</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1.0442881e-41</v>
+      </c>
+      <c r="F12" t="n">
+        <v>55094635000000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3.9018043e-43</v>
+      </c>
+      <c r="H12" t="n">
+        <v>55094634000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C13" t="n">
+        <v>26334709000000</v>
+      </c>
+      <c r="D13" t="n">
+        <v>26334707000000</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1.048517e-41</v>
+      </c>
+      <c r="F13" t="n">
+        <v>55094433000000</v>
+      </c>
+      <c r="G13" t="n">
+        <v>3.7438833e-43</v>
+      </c>
+      <c r="H13" t="n">
+        <v>55094431000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C14" t="n">
+        <v>29412847000000</v>
+      </c>
+      <c r="D14" t="n">
+        <v>29412844000000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.0524309e-41</v>
+      </c>
+      <c r="F14" t="n">
+        <v>55094246000000</v>
+      </c>
+      <c r="G14" t="n">
+        <v>3.6039689e-43</v>
+      </c>
+      <c r="H14" t="n">
+        <v>55094245000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C15" t="n">
+        <v>32617170000000</v>
+      </c>
+      <c r="D15" t="n">
+        <v>32617167000000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1.056206e-41</v>
+      </c>
+      <c r="F15" t="n">
+        <v>55094067000000</v>
+      </c>
+      <c r="G15" t="n">
+        <v>3.4744381e-43</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55094066000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C16" t="n">
+        <v>35948205000000</v>
+      </c>
+      <c r="D16" t="n">
+        <v>35948203000000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1.0599551e-41</v>
+      </c>
+      <c r="F16" t="n">
+        <v>55093890000000</v>
+      </c>
+      <c r="G16" t="n">
+        <v>3.3508494e-43</v>
+      </c>
+      <c r="H16" t="n">
+        <v>55093889000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C17" t="n">
+        <v>39406483000000</v>
+      </c>
+      <c r="D17" t="n">
+        <v>39406481000000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>1.0637337e-41</v>
+      </c>
+      <c r="F17" t="n">
+        <v>55093712000000</v>
+      </c>
+      <c r="G17" t="n">
+        <v>3.2311546e-43</v>
+      </c>
+      <c r="H17" t="n">
+        <v>55093711000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>42992536000000</v>
+      </c>
+      <c r="D18" t="n">
+        <v>42992534000000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>1.0675503e-41</v>
+      </c>
+      <c r="F18" t="n">
+        <v>55093533000000</v>
+      </c>
+      <c r="G18" t="n">
+        <v>3.1150098e-43</v>
+      </c>
+      <c r="H18" t="n">
+        <v>55093531000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C19" t="n">
+        <v>46706903000000</v>
+      </c>
+      <c r="D19" t="n">
+        <v>46706900000000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1.0713767e-41</v>
+      </c>
+      <c r="F19" t="n">
+        <v>55093354000000</v>
+      </c>
+      <c r="G19" t="n">
+        <v>3.0031567e-43</v>
+      </c>
+      <c r="H19" t="n">
+        <v>55093353000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1</v>
+      </c>
+      <c r="C20" t="n">
+        <v>50550128000000</v>
+      </c>
+      <c r="D20" t="n">
+        <v>50550125000000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1.0751606e-41</v>
+      </c>
+      <c r="F20" t="n">
+        <v>55093178000000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2.8968696e-43</v>
+      </c>
+      <c r="H20" t="n">
+        <v>55093176000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I191"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>AlContentBarrier</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ThicknessAlGaNBarrier</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2DEG_device</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2DEG_BC</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2DEG_SC</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2DHG_device</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2DHG_BC</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2DHG_SC</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.6186198e-05</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.6185792e-05</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.6186906e-43</v>
+      </c>
+      <c r="G2" t="n">
+        <v>55267126000000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>4.0695524e-27</v>
+      </c>
+      <c r="I2" t="n">
+        <v>55267120000000</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.6818361</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.6817924</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.360278699999999e-43</v>
+      </c>
+      <c r="G3" t="n">
+        <v>55217285000000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.2713084e-30</v>
+      </c>
+      <c r="I3" t="n">
+        <v>55217282000000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>15</v>
+      </c>
+      <c r="D4" t="n">
+        <v>76892.443</v>
+      </c>
+      <c r="E4" t="n">
+        <v>76891.757</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.3902137e-42</v>
+      </c>
+      <c r="G4" t="n">
+        <v>55169079000000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.6608224e-35</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55169078000000</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C5" t="n">
+        <v>20</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2712706700</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2712699000</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.979781700000001e-42</v>
+      </c>
+      <c r="G5" t="n">
+        <v>55122617000000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.0073502e-39</v>
+      </c>
+      <c r="I5" t="n">
+        <v>55122616000000</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>314206820000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>314206500000</v>
+      </c>
+      <c r="F6" t="n">
+        <v>8.653904900000001e-42</v>
+      </c>
+      <c r="G6" t="n">
+        <v>55104046000000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>4.1368193e-42</v>
+      </c>
+      <c r="I6" t="n">
+        <v>55104045000000</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D7" t="n">
+        <v>697971520000</v>
+      </c>
+      <c r="E7" t="n">
+        <v>697971040000</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.010125699999999e-42</v>
+      </c>
+      <c r="G7" t="n">
+        <v>55102024000000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1.7999491e-42</v>
+      </c>
+      <c r="I7" t="n">
+        <v>55102023000000</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>992727610000</v>
+      </c>
+      <c r="E8" t="n">
+        <v>992727040000</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.132276e-42</v>
+      </c>
+      <c r="G8" t="n">
+        <v>55101349000000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1.5412025e-42</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55101348000000</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C9" t="n">
+        <v>40</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1220586300000</v>
+      </c>
+      <c r="E9" t="n">
+        <v>1220585500000</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.1926244e-42</v>
+      </c>
+      <c r="G9" t="n">
+        <v>55101019000000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1.4386723e-42</v>
+      </c>
+      <c r="I9" t="n">
+        <v>55101018000000</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C10" t="n">
+        <v>45</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1400868600000</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1400867000000</v>
+      </c>
+      <c r="F10" t="n">
+        <v>9.228103600000001e-42</v>
+      </c>
+      <c r="G10" t="n">
+        <v>55100826000000</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1.3827531e-42</v>
+      </c>
+      <c r="I10" t="n">
+        <v>55100825000000</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="C11" t="n">
+        <v>50</v>
+      </c>
+      <c r="D11" t="n">
+        <v>1546691000000</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1546687000000</v>
+      </c>
+      <c r="F11" t="n">
+        <v>9.2512109e-42</v>
+      </c>
+      <c r="G11" t="n">
+        <v>55100701000000</v>
+      </c>
+      <c r="H11" t="n">
+        <v>1.3477386e-42</v>
+      </c>
+      <c r="I11" t="n">
+        <v>55100700000000</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>5</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.0022323485</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.002232326</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5.3331077e-43</v>
+      </c>
+      <c r="G12" t="n">
+        <v>55246647000000</v>
+      </c>
+      <c r="H12" t="n">
+        <v>7.2083347e-29</v>
+      </c>
+      <c r="I12" t="n">
+        <v>55246643000000</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D13" t="n">
+        <v>144161.42</v>
+      </c>
+      <c r="E13" t="n">
+        <v>144160.08</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2.5528722e-42</v>
+      </c>
+      <c r="G13" t="n">
+        <v>55165723000000</v>
+      </c>
+      <c r="H13" t="n">
+        <v>5.5481664e-30</v>
+      </c>
+      <c r="I13" t="n">
+        <v>55165721000000</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C14" t="n">
+        <v>15</v>
+      </c>
+      <c r="D14" t="n">
+        <v>283502850000</v>
+      </c>
+      <c r="E14" t="n">
+        <v>283502510000</v>
+      </c>
+      <c r="F14" t="n">
+        <v>8.7074669e-42</v>
+      </c>
+      <c r="G14" t="n">
+        <v>55103737000000</v>
+      </c>
+      <c r="H14" t="n">
+        <v>2.3642877e-37</v>
+      </c>
+      <c r="I14" t="n">
+        <v>55103735000000</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>20</v>
+      </c>
+      <c r="D15" t="n">
+        <v>1261969800000</v>
+      </c>
+      <c r="E15" t="n">
+        <v>1261969100000</v>
+      </c>
+      <c r="F15" t="n">
+        <v>9.329525e-42</v>
+      </c>
+      <c r="G15" t="n">
+        <v>55100279000000</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.8741753e-41</v>
+      </c>
+      <c r="I15" t="n">
+        <v>55100277000000</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>25</v>
+      </c>
+      <c r="D16" t="n">
+        <v>1926553300000</v>
+      </c>
+      <c r="E16" t="n">
+        <v>1926552600000</v>
+      </c>
+      <c r="F16" t="n">
+        <v>9.4379706e-42</v>
+      </c>
+      <c r="G16" t="n">
+        <v>55099700000000</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.1583705e-42</v>
+      </c>
+      <c r="I16" t="n">
+        <v>55099698000000</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>30</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2386941200000</v>
+      </c>
+      <c r="E17" t="n">
+        <v>2386940300000</v>
+      </c>
+      <c r="F17" t="n">
+        <v>9.483717e-42</v>
+      </c>
+      <c r="G17" t="n">
+        <v>55099458000000</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.0467435e-42</v>
+      </c>
+      <c r="I17" t="n">
+        <v>55099456000000</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C18" t="n">
+        <v>35</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2722313900000</v>
+      </c>
+      <c r="E18" t="n">
+        <v>2722313100000</v>
+      </c>
+      <c r="F18" t="n">
+        <v>9.5094009e-42</v>
+      </c>
+      <c r="G18" t="n">
+        <v>55099322000000</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.0168973e-42</v>
+      </c>
+      <c r="I18" t="n">
+        <v>55099321000000</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C19" t="n">
+        <v>40</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2976848200000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>2976847300000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.525888e-42</v>
+      </c>
+      <c r="G19" t="n">
+        <v>55099235000000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9.989447899999999e-43</v>
+      </c>
+      <c r="I19" t="n">
+        <v>55099234000000</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C20" t="n">
+        <v>45</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3176384600000</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3176383300000</v>
+      </c>
+      <c r="F20" t="n">
+        <v>9.5372977e-42</v>
+      </c>
+      <c r="G20" t="n">
+        <v>55099175000000</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9.8677153e-43</v>
+      </c>
+      <c r="I20" t="n">
+        <v>55099174000000</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="C21" t="n">
+        <v>50</v>
+      </c>
+      <c r="D21" t="n">
+        <v>3336902000000</v>
+      </c>
+      <c r="E21" t="n">
+        <v>3336899500000</v>
+      </c>
+      <c r="F21" t="n">
+        <v>9.5455784e-42</v>
+      </c>
+      <c r="G21" t="n">
+        <v>55099132000000</v>
+      </c>
+      <c r="H21" t="n">
+        <v>9.780442e-43</v>
+      </c>
+      <c r="I21" t="n">
+        <v>55099131000000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>5</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.38695558</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.38695331</v>
+      </c>
+      <c r="F22" t="n">
+        <v>8.3616594e-43</v>
+      </c>
+      <c r="G22" t="n">
+        <v>55223144000000</v>
+      </c>
+      <c r="H22" t="n">
+        <v>5.3374894e-30</v>
+      </c>
+      <c r="I22" t="n">
+        <v>55223141000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>36906035000</v>
+      </c>
+      <c r="E23" t="n">
+        <v>36905952000</v>
+      </c>
+      <c r="F23" t="n">
+        <v>7.5707794e-42</v>
+      </c>
+      <c r="G23" t="n">
+        <v>55110755000000</v>
+      </c>
+      <c r="H23" t="n">
+        <v>4.8415249e-30</v>
+      </c>
+      <c r="I23" t="n">
+        <v>55110754000000</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>15</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1816412500000</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1816411700000</v>
+      </c>
+      <c r="F24" t="n">
+        <v>9.4983984e-42</v>
+      </c>
+      <c r="G24" t="n">
+        <v>55099380000000</v>
+      </c>
+      <c r="H24" t="n">
+        <v>3.8449904e-38</v>
+      </c>
+      <c r="I24" t="n">
+        <v>55099379000000</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C25" t="n">
+        <v>20</v>
+      </c>
+      <c r="D25" t="n">
+        <v>2985490200000</v>
+      </c>
+      <c r="E25" t="n">
+        <v>2985489300000</v>
+      </c>
+      <c r="F25" t="n">
+        <v>9.6093143e-42</v>
+      </c>
+      <c r="G25" t="n">
+        <v>55098799000000</v>
+      </c>
+      <c r="H25" t="n">
+        <v>2.7372697e-42</v>
+      </c>
+      <c r="I25" t="n">
+        <v>55098797000000</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C26" t="n">
+        <v>25</v>
+      </c>
+      <c r="D26" t="n">
+        <v>3721986100000</v>
+      </c>
+      <c r="E26" t="n">
+        <v>3721985100000</v>
+      </c>
+      <c r="F26" t="n">
+        <v>9.6553759e-42</v>
+      </c>
+      <c r="G26" t="n">
+        <v>55098559000000</v>
+      </c>
+      <c r="H26" t="n">
+        <v>8.7446865e-43</v>
+      </c>
+      <c r="I26" t="n">
+        <v>55098558000000</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>30</v>
+      </c>
+      <c r="D27" t="n">
+        <v>4224318000000</v>
+      </c>
+      <c r="E27" t="n">
+        <v>4224317000000</v>
+      </c>
+      <c r="F27" t="n">
+        <v>9.6819843e-42</v>
+      </c>
+      <c r="G27" t="n">
+        <v>55098421000000</v>
+      </c>
+      <c r="H27" t="n">
+        <v>8.4595081e-43</v>
+      </c>
+      <c r="I27" t="n">
+        <v>55098420000000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C28" t="n">
+        <v>35</v>
+      </c>
+      <c r="D28" t="n">
+        <v>4587867900000</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4587866900000</v>
+      </c>
+      <c r="F28" t="n">
+        <v>9.6993126e-42</v>
+      </c>
+      <c r="G28" t="n">
+        <v>55098332000000</v>
+      </c>
+      <c r="H28" t="n">
+        <v>8.3053868e-43</v>
+      </c>
+      <c r="I28" t="n">
+        <v>55098331000000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C29" t="n">
+        <v>40</v>
+      </c>
+      <c r="D29" t="n">
+        <v>4862838800000</v>
+      </c>
+      <c r="E29" t="n">
+        <v>4862837800000</v>
+      </c>
+      <c r="F29" t="n">
+        <v>9.711330100000001e-42</v>
+      </c>
+      <c r="G29" t="n">
+        <v>55098270000000</v>
+      </c>
+      <c r="H29" t="n">
+        <v>8.200786499999999e-43</v>
+      </c>
+      <c r="I29" t="n">
+        <v>55098269000000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C30" t="n">
+        <v>45</v>
+      </c>
+      <c r="D30" t="n">
+        <v>5077954500000</v>
+      </c>
+      <c r="E30" t="n">
+        <v>5077953300000</v>
+      </c>
+      <c r="F30" t="n">
+        <v>9.7200003e-42</v>
+      </c>
+      <c r="G30" t="n">
+        <v>55098225000000</v>
+      </c>
+      <c r="H30" t="n">
+        <v>8.1262451e-43</v>
+      </c>
+      <c r="I30" t="n">
+        <v>55098224000000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C31" t="n">
+        <v>50</v>
+      </c>
+      <c r="D31" t="n">
+        <v>5250778100000</v>
+      </c>
+      <c r="E31" t="n">
+        <v>5250776500000</v>
+      </c>
+      <c r="F31" t="n">
+        <v>9.7264344e-42</v>
+      </c>
+      <c r="G31" t="n">
+        <v>55098192000000</v>
+      </c>
+      <c r="H31" t="n">
+        <v>8.071412399999999e-43</v>
+      </c>
+      <c r="I31" t="n">
+        <v>55098191000000</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C32" t="n">
+        <v>5</v>
+      </c>
+      <c r="D32" t="n">
+        <v>133.37546</v>
+      </c>
+      <c r="E32" t="n">
+        <v>133.37505</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.3959647e-42</v>
+      </c>
+      <c r="G32" t="n">
+        <v>55196632000000</v>
+      </c>
+      <c r="H32" t="n">
+        <v>3.8222015e-30</v>
+      </c>
+      <c r="I32" t="n">
+        <v>55196630000000</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>10</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1268198500000</v>
+      </c>
+      <c r="E33" t="n">
+        <v>1268197700000</v>
+      </c>
+      <c r="F33" t="n">
+        <v>9.448021900000001e-42</v>
+      </c>
+      <c r="G33" t="n">
+        <v>55099646000000</v>
+      </c>
+      <c r="H33" t="n">
+        <v>4.4494648e-30</v>
+      </c>
+      <c r="I33" t="n">
+        <v>55099645000000</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C34" t="n">
+        <v>15</v>
+      </c>
+      <c r="D34" t="n">
+        <v>3581628200000</v>
+      </c>
+      <c r="E34" t="n">
+        <v>3581627200000</v>
+      </c>
+      <c r="F34" t="n">
+        <v>9.7016549e-42</v>
+      </c>
+      <c r="G34" t="n">
+        <v>55098320000000</v>
+      </c>
+      <c r="H34" t="n">
+        <v>8.4320237e-39</v>
+      </c>
+      <c r="I34" t="n">
+        <v>55098319000000</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C35" t="n">
+        <v>20</v>
+      </c>
+      <c r="D35" t="n">
+        <v>4857754200000</v>
+      </c>
+      <c r="E35" t="n">
+        <v>4857753100000</v>
+      </c>
+      <c r="F35" t="n">
+        <v>9.7729477e-42</v>
+      </c>
+      <c r="G35" t="n">
+        <v>55097953000000</v>
+      </c>
+      <c r="H35" t="n">
+        <v>9.790066399999999e-43</v>
+      </c>
+      <c r="I35" t="n">
+        <v>55097952000000</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>25</v>
+      </c>
+      <c r="D36" t="n">
+        <v>5650526700000</v>
+      </c>
+      <c r="E36" t="n">
+        <v>5650525600000</v>
+      </c>
+      <c r="F36" t="n">
+        <v>9.8111898e-42</v>
+      </c>
+      <c r="G36" t="n">
+        <v>55097758000000</v>
+      </c>
+      <c r="H36" t="n">
+        <v>7.3892924e-43</v>
+      </c>
+      <c r="I36" t="n">
+        <v>55097756000000</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C37" t="n">
+        <v>30</v>
+      </c>
+      <c r="D37" t="n">
+        <v>6188604500000</v>
+      </c>
+      <c r="E37" t="n">
+        <v>6188603300000</v>
+      </c>
+      <c r="F37" t="n">
+        <v>9.8348178e-42</v>
+      </c>
+      <c r="G37" t="n">
+        <v>55097637000000</v>
+      </c>
+      <c r="H37" t="n">
+        <v>7.206354500000001e-43</v>
+      </c>
+      <c r="I37" t="n">
+        <v>55097636000000</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C38" t="n">
+        <v>35</v>
+      </c>
+      <c r="D38" t="n">
+        <v>6577120200000</v>
+      </c>
+      <c r="E38" t="n">
+        <v>6577119000000</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9.8505157e-42</v>
+      </c>
+      <c r="G38" t="n">
+        <v>55097557000000</v>
+      </c>
+      <c r="H38" t="n">
+        <v>7.0896864e-43</v>
+      </c>
+      <c r="I38" t="n">
+        <v>55097556000000</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C39" t="n">
+        <v>40</v>
+      </c>
+      <c r="D39" t="n">
+        <v>6870596800000</v>
+      </c>
+      <c r="E39" t="n">
+        <v>6870595600000</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9.8614479e-42</v>
+      </c>
+      <c r="G39" t="n">
+        <v>55097502000000</v>
+      </c>
+      <c r="H39" t="n">
+        <v>7.0096924e-43</v>
+      </c>
+      <c r="I39" t="n">
+        <v>55097501000000</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C40" t="n">
+        <v>45</v>
+      </c>
+      <c r="D40" t="n">
+        <v>7100011500000</v>
+      </c>
+      <c r="E40" t="n">
+        <v>7100010300000</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9.8693146e-42</v>
+      </c>
+      <c r="G40" t="n">
+        <v>55097462000000</v>
+      </c>
+      <c r="H40" t="n">
+        <v>6.9527451e-43</v>
+      </c>
+      <c r="I40" t="n">
+        <v>55097461000000</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="C41" t="n">
+        <v>50</v>
+      </c>
+      <c r="D41" t="n">
+        <v>7284231600000</v>
+      </c>
+      <c r="E41" t="n">
+        <v>7284230200000</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9.8751142e-42</v>
+      </c>
+      <c r="G41" t="n">
+        <v>55097433000000</v>
+      </c>
+      <c r="H41" t="n">
+        <v>6.9110871e-43</v>
+      </c>
+      <c r="I41" t="n">
+        <v>55097431000000</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C42" t="n">
+        <v>5</v>
+      </c>
+      <c r="D42" t="n">
+        <v>91364.91</v>
+      </c>
+      <c r="E42" t="n">
+        <v>91364.77099999999</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.4847299e-42</v>
+      </c>
+      <c r="G42" t="n">
+        <v>55167102000000</v>
+      </c>
+      <c r="H42" t="n">
+        <v>2.7955057e-30</v>
+      </c>
+      <c r="I42" t="n">
+        <v>55167100000000</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C43" t="n">
+        <v>10</v>
+      </c>
+      <c r="D43" t="n">
+        <v>2954078200000</v>
+      </c>
+      <c r="E43" t="n">
+        <v>2954077200000</v>
+      </c>
+      <c r="F43" t="n">
+        <v>9.6962796e-42</v>
+      </c>
+      <c r="G43" t="n">
+        <v>55098348000000</v>
+      </c>
+      <c r="H43" t="n">
+        <v>3.7160899e-30</v>
+      </c>
+      <c r="I43" t="n">
+        <v>55098346000000</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C44" t="n">
+        <v>15</v>
+      </c>
+      <c r="D44" t="n">
+        <v>5497092400000</v>
+      </c>
+      <c r="E44" t="n">
+        <v>5497091200000</v>
+      </c>
+      <c r="F44" t="n">
+        <v>9.8474065e-42</v>
+      </c>
+      <c r="G44" t="n">
+        <v>55097573000000</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1.8277251e-39</v>
+      </c>
+      <c r="I44" t="n">
+        <v>55097572000000</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C45" t="n">
+        <v>20</v>
+      </c>
+      <c r="D45" t="n">
+        <v>6861969900000</v>
+      </c>
+      <c r="E45" t="n">
+        <v>6861968700000</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9.9118822e-42</v>
+      </c>
+      <c r="G45" t="n">
+        <v>55097247000000</v>
+      </c>
+      <c r="H45" t="n">
+        <v>6.8904062e-43</v>
+      </c>
+      <c r="I45" t="n">
+        <v>55097245000000</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C46" t="n">
+        <v>25</v>
+      </c>
+      <c r="D46" t="n">
+        <v>7705056400000</v>
+      </c>
+      <c r="E46" t="n">
+        <v>7705055100000</v>
+      </c>
+      <c r="F46" t="n">
+        <v>9.9472513e-42</v>
+      </c>
+      <c r="G46" t="n">
+        <v>55097068000000</v>
+      </c>
+      <c r="H46" t="n">
+        <v>6.4154931e-43</v>
+      </c>
+      <c r="I46" t="n">
+        <v>55097067000000</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C47" t="n">
+        <v>30</v>
+      </c>
+      <c r="D47" t="n">
+        <v>8276025800000</v>
+      </c>
+      <c r="E47" t="n">
+        <v>8276024500000</v>
+      </c>
+      <c r="F47" t="n">
+        <v>9.9688969e-42</v>
+      </c>
+      <c r="G47" t="n">
+        <v>55096959000000</v>
+      </c>
+      <c r="H47" t="n">
+        <v>6.2741728e-43</v>
+      </c>
+      <c r="I47" t="n">
+        <v>55096958000000</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C48" t="n">
+        <v>35</v>
+      </c>
+      <c r="D48" t="n">
+        <v>8687852800000</v>
+      </c>
+      <c r="E48" t="n">
+        <v>8687851400000</v>
+      </c>
+      <c r="F48" t="n">
+        <v>9.983107800000001e-42</v>
+      </c>
+      <c r="G48" t="n">
+        <v>55096888000000</v>
+      </c>
+      <c r="H48" t="n">
+        <v>6.1834146e-43</v>
+      </c>
+      <c r="I48" t="n">
+        <v>55096887000000</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C49" t="n">
+        <v>40</v>
+      </c>
+      <c r="D49" t="n">
+        <v>8998757700000</v>
+      </c>
+      <c r="E49" t="n">
+        <v>8998756400000</v>
+      </c>
+      <c r="F49" t="n">
+        <v>9.9928938e-42</v>
+      </c>
+      <c r="G49" t="n">
+        <v>55096839000000</v>
+      </c>
+      <c r="H49" t="n">
+        <v>6.1217564e-43</v>
+      </c>
+      <c r="I49" t="n">
+        <v>55096838000000</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45</v>
+      </c>
+      <c r="D50" t="n">
+        <v>9241712400000</v>
+      </c>
+      <c r="E50" t="n">
+        <v>9241711000000</v>
+      </c>
+      <c r="F50" t="n">
+        <v>9.9998647e-42</v>
+      </c>
+      <c r="G50" t="n">
+        <v>55096804000000</v>
+      </c>
+      <c r="H50" t="n">
+        <v>6.0782468e-43</v>
+      </c>
+      <c r="I50" t="n">
+        <v>55096803000000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C51" t="n">
+        <v>50</v>
+      </c>
+      <c r="D51" t="n">
+        <v>9436762800000</v>
+      </c>
+      <c r="E51" t="n">
+        <v>9436761400000</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1.0004951e-41</v>
+      </c>
+      <c r="G51" t="n">
+        <v>55096779000000</v>
+      </c>
+      <c r="H51" t="n">
+        <v>6.0467151e-43</v>
+      </c>
+      <c r="I51" t="n">
+        <v>55096777000000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C52" t="n">
+        <v>5</v>
+      </c>
+      <c r="D52" t="n">
+        <v>129089050</v>
+      </c>
+      <c r="E52" t="n">
+        <v>129088960</v>
+      </c>
+      <c r="F52" t="n">
+        <v>4.7212801e-42</v>
+      </c>
+      <c r="G52" t="n">
+        <v>55134535000000</v>
+      </c>
+      <c r="H52" t="n">
+        <v>1.8417311e-30</v>
+      </c>
+      <c r="I52" t="n">
+        <v>55134533000000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C53" t="n">
+        <v>10</v>
+      </c>
+      <c r="D53" t="n">
+        <v>4825504700000</v>
+      </c>
+      <c r="E53" t="n">
+        <v>4825503500000</v>
+      </c>
+      <c r="F53" t="n">
+        <v>9.8432812e-42</v>
+      </c>
+      <c r="G53" t="n">
+        <v>55097594000000</v>
+      </c>
+      <c r="H53" t="n">
+        <v>2.7263547e-30</v>
+      </c>
+      <c r="I53" t="n">
+        <v>55097593000000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C54" t="n">
+        <v>15</v>
+      </c>
+      <c r="D54" t="n">
+        <v>7548876600000</v>
+      </c>
+      <c r="E54" t="n">
+        <v>7548875200000</v>
+      </c>
+      <c r="F54" t="n">
+        <v>9.9777534e-42</v>
+      </c>
+      <c r="G54" t="n">
+        <v>55096915000000</v>
+      </c>
+      <c r="H54" t="n">
+        <v>3.7194166e-40</v>
+      </c>
+      <c r="I54" t="n">
+        <v>55096914000000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C55" t="n">
+        <v>20</v>
+      </c>
+      <c r="D55" t="n">
+        <v>8993850000000</v>
+      </c>
+      <c r="E55" t="n">
+        <v>8993848600000</v>
+      </c>
+      <c r="F55" t="n">
+        <v>1.0036623e-41</v>
+      </c>
+      <c r="G55" t="n">
+        <v>55096621000000</v>
+      </c>
+      <c r="H55" t="n">
+        <v>5.879674e-43</v>
+      </c>
+      <c r="I55" t="n">
+        <v>55096619000000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C56" t="n">
+        <v>25</v>
+      </c>
+      <c r="D56" t="n">
+        <v>9883805200000</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9883803800000</v>
+      </c>
+      <c r="F56" t="n">
+        <v>1.0067911e-41</v>
+      </c>
+      <c r="G56" t="n">
+        <v>55096465000000</v>
+      </c>
+      <c r="H56" t="n">
+        <v>5.6709612e-43</v>
+      </c>
+      <c r="I56" t="n">
+        <v>55096463000000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C57" t="n">
+        <v>30</v>
+      </c>
+      <c r="D57" t="n">
+        <v>10485817000000</v>
+      </c>
+      <c r="E57" t="n">
+        <v>10485816000000</v>
+      </c>
+      <c r="F57" t="n">
+        <v>1.0086636e-41</v>
+      </c>
+      <c r="G57" t="n">
+        <v>55096372000000</v>
+      </c>
+      <c r="H57" t="n">
+        <v>5.5641883e-43</v>
+      </c>
+      <c r="I57" t="n">
+        <v>55096370000000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C58" t="n">
+        <v>35</v>
+      </c>
+      <c r="D58" t="n">
+        <v>10919795000000</v>
+      </c>
+      <c r="E58" t="n">
+        <v>10919793000000</v>
+      </c>
+      <c r="F58" t="n">
+        <v>1.0098746e-41</v>
+      </c>
+      <c r="G58" t="n">
+        <v>55096312000000</v>
+      </c>
+      <c r="H58" t="n">
+        <v>5.4963221e-43</v>
+      </c>
+      <c r="I58" t="n">
+        <v>55096310000000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C59" t="n">
+        <v>40</v>
+      </c>
+      <c r="D59" t="n">
+        <v>11247327000000</v>
+      </c>
+      <c r="E59" t="n">
+        <v>11247326000000</v>
+      </c>
+      <c r="F59" t="n">
+        <v>1.0106998e-41</v>
+      </c>
+      <c r="G59" t="n">
+        <v>55096271000000</v>
+      </c>
+      <c r="H59" t="n">
+        <v>5.450599e-43</v>
+      </c>
+      <c r="I59" t="n">
+        <v>55096270000000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C60" t="n">
+        <v>45</v>
+      </c>
+      <c r="D60" t="n">
+        <v>11503233000000</v>
+      </c>
+      <c r="E60" t="n">
+        <v>11503231000000</v>
+      </c>
+      <c r="F60" t="n">
+        <v>1.0112826e-41</v>
+      </c>
+      <c r="G60" t="n">
+        <v>55096242000000</v>
+      </c>
+      <c r="H60" t="n">
+        <v>5.4185591e-43</v>
+      </c>
+      <c r="I60" t="n">
+        <v>55096241000000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C61" t="n">
+        <v>50</v>
+      </c>
+      <c r="D61" t="n">
+        <v>11708660000000</v>
+      </c>
+      <c r="E61" t="n">
+        <v>11708659000000</v>
+      </c>
+      <c r="F61" t="n">
+        <v>1.0117044e-41</v>
+      </c>
+      <c r="G61" t="n">
+        <v>55096221000000</v>
+      </c>
+      <c r="H61" t="n">
+        <v>5.3955005e-43</v>
+      </c>
+      <c r="I61" t="n">
+        <v>55096220000000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C62" t="n">
+        <v>5</v>
+      </c>
+      <c r="D62" t="n">
+        <v>184369170000</v>
+      </c>
+      <c r="E62" t="n">
+        <v>184369140000</v>
+      </c>
+      <c r="F62" t="n">
+        <v>8.6412004e-42</v>
+      </c>
+      <c r="G62" t="n">
+        <v>55104120000000</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1.0962427e-30</v>
+      </c>
+      <c r="I62" t="n">
+        <v>55104118000000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>10</v>
+      </c>
+      <c r="D63" t="n">
+        <v>6850860600000</v>
+      </c>
+      <c r="E63" t="n">
+        <v>6850859200000</v>
+      </c>
+      <c r="F63" t="n">
+        <v>9.972715700000001e-42</v>
+      </c>
+      <c r="G63" t="n">
+        <v>55096940000000</v>
+      </c>
+      <c r="H63" t="n">
+        <v>1.7539495e-30</v>
+      </c>
+      <c r="I63" t="n">
+        <v>55096939000000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C64" t="n">
+        <v>15</v>
+      </c>
+      <c r="D64" t="n">
+        <v>9732633100000</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9732631600000</v>
+      </c>
+      <c r="F64" t="n">
+        <v>1.0095288e-41</v>
+      </c>
+      <c r="G64" t="n">
+        <v>55096329000000</v>
+      </c>
+      <c r="H64" t="n">
+        <v>7.0201991e-41</v>
+      </c>
+      <c r="I64" t="n">
+        <v>55096328000000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C65" t="n">
+        <v>20</v>
+      </c>
+      <c r="D65" t="n">
+        <v>11252244000000</v>
+      </c>
+      <c r="E65" t="n">
+        <v>11252243000000</v>
+      </c>
+      <c r="F65" t="n">
+        <v>1.0145823e-41</v>
+      </c>
+      <c r="G65" t="n">
+        <v>55096079000000</v>
+      </c>
+      <c r="H65" t="n">
+        <v>5.2435513e-43</v>
+      </c>
+      <c r="I65" t="n">
+        <v>55096078000000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C66" t="n">
+        <v>25</v>
+      </c>
+      <c r="D66" t="n">
+        <v>12186546000000</v>
+      </c>
+      <c r="E66" t="n">
+        <v>12186545000000</v>
+      </c>
+      <c r="F66" t="n">
+        <v>1.0171767e-41</v>
+      </c>
+      <c r="G66" t="n">
+        <v>55095951000000</v>
+      </c>
+      <c r="H66" t="n">
+        <v>5.1059179e-43</v>
+      </c>
+      <c r="I66" t="n">
+        <v>55095950000000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C67" t="n">
+        <v>30</v>
+      </c>
+      <c r="D67" t="n">
+        <v>12818118000000</v>
+      </c>
+      <c r="E67" t="n">
+        <v>12818117000000</v>
+      </c>
+      <c r="F67" t="n">
+        <v>1.0187004e-41</v>
+      </c>
+      <c r="G67" t="n">
+        <v>55095876000000</v>
+      </c>
+      <c r="H67" t="n">
+        <v>5.0283495e-43</v>
+      </c>
+      <c r="I67" t="n">
+        <v>55095875000000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C68" t="n">
+        <v>35</v>
+      </c>
+      <c r="D68" t="n">
+        <v>13273261000000</v>
+      </c>
+      <c r="E68" t="n">
+        <v>13273259000000</v>
+      </c>
+      <c r="F68" t="n">
+        <v>1.0196755e-41</v>
+      </c>
+      <c r="G68" t="n">
+        <v>55095828000000</v>
+      </c>
+      <c r="H68" t="n">
+        <v>4.9793931e-43</v>
+      </c>
+      <c r="I68" t="n">
+        <v>55095827000000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C69" t="n">
+        <v>40</v>
+      </c>
+      <c r="D69" t="n">
+        <v>13616713000000</v>
+      </c>
+      <c r="E69" t="n">
+        <v>13616711000000</v>
+      </c>
+      <c r="F69" t="n">
+        <v>1.020336e-41</v>
+      </c>
+      <c r="G69" t="n">
+        <v>55095796000000</v>
+      </c>
+      <c r="H69" t="n">
+        <v>4.9465288e-43</v>
+      </c>
+      <c r="I69" t="n">
+        <v>55095795000000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C70" t="n">
+        <v>45</v>
+      </c>
+      <c r="D70" t="n">
+        <v>13885036000000</v>
+      </c>
+      <c r="E70" t="n">
+        <v>13885034000000</v>
+      </c>
+      <c r="F70" t="n">
+        <v>1.0208009e-41</v>
+      </c>
+      <c r="G70" t="n">
+        <v>55095773000000</v>
+      </c>
+      <c r="H70" t="n">
+        <v>4.9235425e-43</v>
+      </c>
+      <c r="I70" t="n">
+        <v>55095772000000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C71" t="n">
+        <v>50</v>
+      </c>
+      <c r="D71" t="n">
+        <v>14100422000000</v>
+      </c>
+      <c r="E71" t="n">
+        <v>14100420000000</v>
+      </c>
+      <c r="F71" t="n">
+        <v>1.0211368e-41</v>
+      </c>
+      <c r="G71" t="n">
+        <v>55095757000000</v>
+      </c>
+      <c r="H71" t="n">
+        <v>4.9070036e-43</v>
+      </c>
+      <c r="I71" t="n">
+        <v>55095755000000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C72" t="n">
+        <v>5</v>
+      </c>
+      <c r="D72" t="n">
+        <v>1497433900000</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1497433800000</v>
+      </c>
+      <c r="F72" t="n">
+        <v>9.5959952e-42</v>
+      </c>
+      <c r="G72" t="n">
+        <v>55098868000000</v>
+      </c>
+      <c r="H72" t="n">
+        <v>6.0829282e-31</v>
+      </c>
+      <c r="I72" t="n">
+        <v>55098867000000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C73" t="n">
+        <v>10</v>
+      </c>
+      <c r="D73" t="n">
+        <v>9020008500000</v>
+      </c>
+      <c r="E73" t="n">
+        <v>9020007000000</v>
+      </c>
+      <c r="F73" t="n">
+        <v>1.009186e-41</v>
+      </c>
+      <c r="G73" t="n">
+        <v>55096346000000</v>
+      </c>
+      <c r="H73" t="n">
+        <v>9.9037854e-31</v>
+      </c>
+      <c r="I73" t="n">
+        <v>55096345000000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C74" t="n">
+        <v>15</v>
+      </c>
+      <c r="D74" t="n">
+        <v>12047019000000</v>
+      </c>
+      <c r="E74" t="n">
+        <v>12047017000000</v>
+      </c>
+      <c r="F74" t="n">
+        <v>1.0197157e-41</v>
+      </c>
+      <c r="G74" t="n">
+        <v>55095826000000</v>
+      </c>
+      <c r="H74" t="n">
+        <v>1.2501009e-41</v>
+      </c>
+      <c r="I74" t="n">
+        <v>55095825000000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C75" t="n">
+        <v>20</v>
+      </c>
+      <c r="D75" t="n">
+        <v>13637091000000</v>
+      </c>
+      <c r="E75" t="n">
+        <v>13637089000000</v>
+      </c>
+      <c r="F75" t="n">
+        <v>1.0237967e-41</v>
+      </c>
+      <c r="G75" t="n">
+        <v>55095626000000</v>
+      </c>
+      <c r="H75" t="n">
+        <v>4.77843e-43</v>
+      </c>
+      <c r="I75" t="n">
+        <v>55095625000000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C76" t="n">
+        <v>25</v>
+      </c>
+      <c r="D76" t="n">
+        <v>14613583000000</v>
+      </c>
+      <c r="E76" t="n">
+        <v>14613581000000</v>
+      </c>
+      <c r="F76" t="n">
+        <v>1.0258413e-41</v>
+      </c>
+      <c r="G76" t="n">
+        <v>55095527000000</v>
+      </c>
+      <c r="H76" t="n">
+        <v>4.6817041e-43</v>
+      </c>
+      <c r="I76" t="n">
+        <v>55095525000000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C77" t="n">
+        <v>30</v>
+      </c>
+      <c r="D77" t="n">
+        <v>15273369000000</v>
+      </c>
+      <c r="E77" t="n">
+        <v>15273367000000</v>
+      </c>
+      <c r="F77" t="n">
+        <v>1.0270298e-41</v>
+      </c>
+      <c r="G77" t="n">
+        <v>55095469000000</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.6265995e-43</v>
+      </c>
+      <c r="I77" t="n">
+        <v>55095467000000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C78" t="n">
+        <v>35</v>
+      </c>
+      <c r="D78" t="n">
+        <v>15748748000000</v>
+      </c>
+      <c r="E78" t="n">
+        <v>15748746000000</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1.0277876e-41</v>
+      </c>
+      <c r="G78" t="n">
+        <v>55095432000000</v>
+      </c>
+      <c r="H78" t="n">
+        <v>4.5918339e-43</v>
+      </c>
+      <c r="I78" t="n">
+        <v>55095430000000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C79" t="n">
+        <v>40</v>
+      </c>
+      <c r="D79" t="n">
+        <v>16107439000000</v>
+      </c>
+      <c r="E79" t="n">
+        <v>16107437000000</v>
+      </c>
+      <c r="F79" t="n">
+        <v>1.0283012e-41</v>
+      </c>
+      <c r="G79" t="n">
+        <v>55095407000000</v>
+      </c>
+      <c r="H79" t="n">
+        <v>4.5684364e-43</v>
+      </c>
+      <c r="I79" t="n">
+        <v>55095405000000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C80" t="n">
+        <v>45</v>
+      </c>
+      <c r="D80" t="n">
+        <v>16387657000000</v>
+      </c>
+      <c r="E80" t="n">
+        <v>16387655000000</v>
+      </c>
+      <c r="F80" t="n">
+        <v>1.028664e-41</v>
+      </c>
+      <c r="G80" t="n">
+        <v>55095389000000</v>
+      </c>
+      <c r="H80" t="n">
+        <v>4.5519873e-43</v>
+      </c>
+      <c r="I80" t="n">
+        <v>55095388000000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.4500000000000001</v>
+      </c>
+      <c r="C81" t="n">
+        <v>50</v>
+      </c>
+      <c r="D81" t="n">
+        <v>16612588000000</v>
+      </c>
+      <c r="E81" t="n">
+        <v>16612587000000</v>
+      </c>
+      <c r="F81" t="n">
+        <v>1.0289277e-41</v>
+      </c>
+      <c r="G81" t="n">
+        <v>55095376000000</v>
+      </c>
+      <c r="H81" t="n">
+        <v>4.5400718e-43</v>
+      </c>
+      <c r="I81" t="n">
+        <v>55095375000000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C82" t="n">
+        <v>5</v>
+      </c>
+      <c r="D82" t="n">
+        <v>3252230300000</v>
+      </c>
+      <c r="E82" t="n">
+        <v>3252230100000</v>
+      </c>
+      <c r="F82" t="n">
+        <v>9.8040746e-42</v>
+      </c>
+      <c r="G82" t="n">
+        <v>55097794000000</v>
+      </c>
+      <c r="H82" t="n">
+        <v>3.0155111e-31</v>
+      </c>
+      <c r="I82" t="n">
+        <v>55097793000000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C83" t="n">
+        <v>10</v>
+      </c>
+      <c r="D83" t="n">
+        <v>11329117000000</v>
+      </c>
+      <c r="E83" t="n">
+        <v>11329115000000</v>
+      </c>
+      <c r="F83" t="n">
+        <v>1.0197056e-41</v>
+      </c>
+      <c r="G83" t="n">
+        <v>55095827000000</v>
+      </c>
+      <c r="H83" t="n">
+        <v>4.9209203e-31</v>
+      </c>
+      <c r="I83" t="n">
+        <v>55095826000000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C84" t="n">
+        <v>15</v>
+      </c>
+      <c r="D84" t="n">
+        <v>14491831000000</v>
+      </c>
+      <c r="E84" t="n">
+        <v>14491829000000</v>
+      </c>
+      <c r="F84" t="n">
+        <v>1.0282106e-41</v>
+      </c>
+      <c r="G84" t="n">
+        <v>55095411000000</v>
+      </c>
+      <c r="H84" t="n">
+        <v>2.3592533e-42</v>
+      </c>
+      <c r="I84" t="n">
+        <v>55095410000000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C85" t="n">
+        <v>20</v>
+      </c>
+      <c r="D85" t="n">
+        <v>16148732000000</v>
+      </c>
+      <c r="E85" t="n">
+        <v>16148730000000</v>
+      </c>
+      <c r="F85" t="n">
+        <v>1.0313747e-41</v>
+      </c>
+      <c r="G85" t="n">
+        <v>55095257000000</v>
+      </c>
+      <c r="H85" t="n">
+        <v>4.4311561e-43</v>
+      </c>
+      <c r="I85" t="n">
+        <v>55095256000000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C86" t="n">
+        <v>25</v>
+      </c>
+      <c r="D86" t="n">
+        <v>17165402000000</v>
+      </c>
+      <c r="E86" t="n">
+        <v>17165400000000</v>
+      </c>
+      <c r="F86" t="n">
+        <v>1.0329458e-41</v>
+      </c>
+      <c r="G86" t="n">
+        <v>55095181000000</v>
+      </c>
+      <c r="H86" t="n">
+        <v>4.3627048e-43</v>
+      </c>
+      <c r="I86" t="n">
+        <v>55095180000000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C87" t="n">
+        <v>30</v>
+      </c>
+      <c r="D87" t="n">
+        <v>17852104000000</v>
+      </c>
+      <c r="E87" t="n">
+        <v>17852102000000</v>
+      </c>
+      <c r="F87" t="n">
+        <v>1.0338601e-41</v>
+      </c>
+      <c r="G87" t="n">
+        <v>55095137000000</v>
+      </c>
+      <c r="H87" t="n">
+        <v>4.3234183e-43</v>
+      </c>
+      <c r="I87" t="n">
+        <v>55095136000000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C88" t="n">
+        <v>35</v>
+      </c>
+      <c r="D88" t="n">
+        <v>18346804000000</v>
+      </c>
+      <c r="E88" t="n">
+        <v>18346802000000</v>
+      </c>
+      <c r="F88" t="n">
+        <v>1.0344464e-41</v>
+      </c>
+      <c r="G88" t="n">
+        <v>55095109000000</v>
+      </c>
+      <c r="H88" t="n">
+        <v>4.2984295e-43</v>
+      </c>
+      <c r="I88" t="n">
+        <v>55095107000000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C89" t="n">
+        <v>40</v>
+      </c>
+      <c r="D89" t="n">
+        <v>18720052000000</v>
+      </c>
+      <c r="E89" t="n">
+        <v>18720050000000</v>
+      </c>
+      <c r="F89" t="n">
+        <v>1.0348472e-41</v>
+      </c>
+      <c r="G89" t="n">
+        <v>55095089000000</v>
+      </c>
+      <c r="H89" t="n">
+        <v>4.2814367e-43</v>
+      </c>
+      <c r="I89" t="n">
+        <v>55095088000000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C90" t="n">
+        <v>45</v>
+      </c>
+      <c r="D90" t="n">
+        <v>19011638000000</v>
+      </c>
+      <c r="E90" t="n">
+        <v>19011636000000</v>
+      </c>
+      <c r="F90" t="n">
+        <v>1.0351336e-41</v>
+      </c>
+      <c r="G90" t="n">
+        <v>55095075000000</v>
+      </c>
+      <c r="H90" t="n">
+        <v>4.2693396e-43</v>
+      </c>
+      <c r="I90" t="n">
+        <v>55095074000000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C91" t="n">
+        <v>50</v>
+      </c>
+      <c r="D91" t="n">
+        <v>19245696000000</v>
+      </c>
+      <c r="E91" t="n">
+        <v>19245694000000</v>
+      </c>
+      <c r="F91" t="n">
+        <v>1.0353447e-41</v>
+      </c>
+      <c r="G91" t="n">
+        <v>55095065000000</v>
+      </c>
+      <c r="H91" t="n">
+        <v>4.2604449e-43</v>
+      </c>
+      <c r="I91" t="n">
+        <v>55095064000000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C92" t="n">
+        <v>5</v>
+      </c>
+      <c r="D92" t="n">
+        <v>5243777100000</v>
+      </c>
+      <c r="E92" t="n">
+        <v>5243777000000</v>
+      </c>
+      <c r="F92" t="n">
+        <v>9.941786799999999e-42</v>
+      </c>
+      <c r="G92" t="n">
+        <v>55097096000000</v>
+      </c>
+      <c r="H92" t="n">
+        <v>1.3294811e-31</v>
+      </c>
+      <c r="I92" t="n">
+        <v>55097094000000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C93" t="n">
+        <v>10</v>
+      </c>
+      <c r="D93" t="n">
+        <v>13776821000000</v>
+      </c>
+      <c r="E93" t="n">
+        <v>13776819000000</v>
+      </c>
+      <c r="F93" t="n">
+        <v>1.0285524e-41</v>
+      </c>
+      <c r="G93" t="n">
+        <v>55095395000000</v>
+      </c>
+      <c r="H93" t="n">
+        <v>2.1653897e-31</v>
+      </c>
+      <c r="I93" t="n">
+        <v>55095393000000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C94" t="n">
+        <v>15</v>
+      </c>
+      <c r="D94" t="n">
+        <v>17067321000000</v>
+      </c>
+      <c r="E94" t="n">
+        <v>17067319000000</v>
+      </c>
+      <c r="F94" t="n">
+        <v>1.0351413e-41</v>
+      </c>
+      <c r="G94" t="n">
+        <v>55095075000000</v>
+      </c>
+      <c r="H94" t="n">
+        <v>7.0571862e-43</v>
+      </c>
+      <c r="I94" t="n">
+        <v>55095074000000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C95" t="n">
+        <v>20</v>
+      </c>
+      <c r="D95" t="n">
+        <v>18787656000000</v>
+      </c>
+      <c r="E95" t="n">
+        <v>18787654000000</v>
+      </c>
+      <c r="F95" t="n">
+        <v>1.0375665e-41</v>
+      </c>
+      <c r="G95" t="n">
+        <v>55094958000000</v>
+      </c>
+      <c r="H95" t="n">
+        <v>4.1680904e-43</v>
+      </c>
+      <c r="I95" t="n">
+        <v>55094957000000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C96" t="n">
+        <v>25</v>
+      </c>
+      <c r="D96" t="n">
+        <v>19842546000000</v>
+      </c>
+      <c r="E96" t="n">
+        <v>19842544000000</v>
+      </c>
+      <c r="F96" t="n">
+        <v>1.0387835e-41</v>
+      </c>
+      <c r="G96" t="n">
+        <v>55094899000000</v>
+      </c>
+      <c r="H96" t="n">
+        <v>4.1184324e-43</v>
+      </c>
+      <c r="I96" t="n">
+        <v>55094898000000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C97" t="n">
+        <v>30</v>
+      </c>
+      <c r="D97" t="n">
+        <v>20554874000000</v>
+      </c>
+      <c r="E97" t="n">
+        <v>20554872000000</v>
+      </c>
+      <c r="F97" t="n">
+        <v>1.0395023e-41</v>
+      </c>
+      <c r="G97" t="n">
+        <v>55094865000000</v>
+      </c>
+      <c r="H97" t="n">
+        <v>4.0894081e-43</v>
+      </c>
+      <c r="I97" t="n">
+        <v>55094863000000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C98" t="n">
+        <v>35</v>
+      </c>
+      <c r="D98" t="n">
+        <v>21067978000000</v>
+      </c>
+      <c r="E98" t="n">
+        <v>21067976000000</v>
+      </c>
+      <c r="F98" t="n">
+        <v>1.0399708e-41</v>
+      </c>
+      <c r="G98" t="n">
+        <v>55094842000000</v>
+      </c>
+      <c r="H98" t="n">
+        <v>4.0706106e-43</v>
+      </c>
+      <c r="I98" t="n">
+        <v>55094841000000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C99" t="n">
+        <v>40</v>
+      </c>
+      <c r="D99" t="n">
+        <v>21455096000000</v>
+      </c>
+      <c r="E99" t="n">
+        <v>21455094000000</v>
+      </c>
+      <c r="F99" t="n">
+        <v>1.0402967e-41</v>
+      </c>
+      <c r="G99" t="n">
+        <v>55094826000000</v>
+      </c>
+      <c r="H99" t="n">
+        <v>4.0575908e-43</v>
+      </c>
+      <c r="I99" t="n">
+        <v>55094825000000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C100" t="n">
+        <v>45</v>
+      </c>
+      <c r="D100" t="n">
+        <v>21757515000000</v>
+      </c>
+      <c r="E100" t="n">
+        <v>21757513000000</v>
+      </c>
+      <c r="F100" t="n">
+        <v>1.040534e-41</v>
+      </c>
+      <c r="G100" t="n">
+        <v>55094815000000</v>
+      </c>
+      <c r="H100" t="n">
+        <v>4.0481416e-43</v>
+      </c>
+      <c r="I100" t="n">
+        <v>55094814000000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C101" t="n">
+        <v>50</v>
+      </c>
+      <c r="D101" t="n">
+        <v>22000270000000</v>
+      </c>
+      <c r="E101" t="n">
+        <v>22000268000000</v>
+      </c>
+      <c r="F101" t="n">
+        <v>1.0407125e-41</v>
+      </c>
+      <c r="G101" t="n">
+        <v>55094806000000</v>
+      </c>
+      <c r="H101" t="n">
+        <v>4.0410462e-43</v>
+      </c>
+      <c r="I101" t="n">
+        <v>55094805000000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C102" t="n">
+        <v>5</v>
+      </c>
+      <c r="D102" t="n">
+        <v>7426518200000</v>
+      </c>
+      <c r="E102" t="n">
+        <v>7426518000000</v>
+      </c>
+      <c r="F102" t="n">
+        <v>1.0068367e-41</v>
+      </c>
+      <c r="G102" t="n">
+        <v>55096462000000</v>
+      </c>
+      <c r="H102" t="n">
+        <v>5.3286562e-32</v>
+      </c>
+      <c r="I102" t="n">
+        <v>55096461000000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C103" t="n">
+        <v>10</v>
+      </c>
+      <c r="D103" t="n">
+        <v>16362796000000</v>
+      </c>
+      <c r="E103" t="n">
+        <v>16362794000000</v>
+      </c>
+      <c r="F103" t="n">
+        <v>1.0357565e-41</v>
+      </c>
+      <c r="G103" t="n">
+        <v>55095045000000</v>
+      </c>
+      <c r="H103" t="n">
+        <v>8.647051e-32</v>
+      </c>
+      <c r="I103" t="n">
+        <v>55095044000000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C104" t="n">
+        <v>15</v>
+      </c>
+      <c r="D104" t="n">
+        <v>19773917000000</v>
+      </c>
+      <c r="E104" t="n">
+        <v>19773915000000</v>
+      </c>
+      <c r="F104" t="n">
+        <v>1.0407985e-41</v>
+      </c>
+      <c r="G104" t="n">
+        <v>55094802000000</v>
+      </c>
+      <c r="H104" t="n">
+        <v>4.4252159e-43</v>
+      </c>
+      <c r="I104" t="n">
+        <v>55094801000000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C105" t="n">
+        <v>20</v>
+      </c>
+      <c r="D105" t="n">
+        <v>21554395000000</v>
+      </c>
+      <c r="E105" t="n">
+        <v>21554393000000</v>
+      </c>
+      <c r="F105" t="n">
+        <v>1.0427025e-41</v>
+      </c>
+      <c r="G105" t="n">
+        <v>55094711000000</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3.9628916e-43</v>
+      </c>
+      <c r="I105" t="n">
+        <v>55094710000000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C106" t="n">
+        <v>25</v>
+      </c>
+      <c r="D106" t="n">
+        <v>22645566000000</v>
+      </c>
+      <c r="E106" t="n">
+        <v>22645564000000</v>
+      </c>
+      <c r="F106" t="n">
+        <v>1.0436888e-41</v>
+      </c>
+      <c r="G106" t="n">
+        <v>55094664000000</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3.9247708e-43</v>
+      </c>
+      <c r="I106" t="n">
+        <v>55094662000000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C107" t="n">
+        <v>30</v>
+      </c>
+      <c r="D107" t="n">
+        <v>23382229000000</v>
+      </c>
+      <c r="E107" t="n">
+        <v>23382227000000</v>
+      </c>
+      <c r="F107" t="n">
+        <v>1.0442881e-41</v>
+      </c>
+      <c r="G107" t="n">
+        <v>55094635000000</v>
+      </c>
+      <c r="H107" t="n">
+        <v>3.9018043e-43</v>
+      </c>
+      <c r="I107" t="n">
+        <v>55094634000000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C108" t="n">
+        <v>35</v>
+      </c>
+      <c r="D108" t="n">
+        <v>23912814000000</v>
+      </c>
+      <c r="E108" t="n">
+        <v>23912812000000</v>
+      </c>
+      <c r="F108" t="n">
+        <v>1.0446886e-41</v>
+      </c>
+      <c r="G108" t="n">
+        <v>55094616000000</v>
+      </c>
+      <c r="H108" t="n">
+        <v>3.8865392e-43</v>
+      </c>
+      <c r="I108" t="n">
+        <v>55094614000000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C109" t="n">
+        <v>40</v>
+      </c>
+      <c r="D109" t="n">
+        <v>24313106000000</v>
+      </c>
+      <c r="E109" t="n">
+        <v>24313103000000</v>
+      </c>
+      <c r="F109" t="n">
+        <v>1.0449737e-41</v>
+      </c>
+      <c r="G109" t="n">
+        <v>55094602000000</v>
+      </c>
+      <c r="H109" t="n">
+        <v>3.8757133e-43</v>
+      </c>
+      <c r="I109" t="n">
+        <v>55094601000000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>45</v>
+      </c>
+      <c r="D110" t="n">
+        <v>24625814000000</v>
+      </c>
+      <c r="E110" t="n">
+        <v>24625812000000</v>
+      </c>
+      <c r="F110" t="n">
+        <v>1.0451858e-41</v>
+      </c>
+      <c r="G110" t="n">
+        <v>55094592000000</v>
+      </c>
+      <c r="H110" t="n">
+        <v>3.8676771e-43</v>
+      </c>
+      <c r="I110" t="n">
+        <v>55094591000000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C111" t="n">
+        <v>50</v>
+      </c>
+      <c r="D111" t="n">
+        <v>24876830000000</v>
+      </c>
+      <c r="E111" t="n">
+        <v>24876828000000</v>
+      </c>
+      <c r="F111" t="n">
+        <v>1.0453491e-41</v>
+      </c>
+      <c r="G111" t="n">
+        <v>55094584000000</v>
+      </c>
+      <c r="H111" t="n">
+        <v>3.8615065e-43</v>
+      </c>
+      <c r="I111" t="n">
+        <v>55094583000000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C112" t="n">
+        <v>5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>9782963000000</v>
+      </c>
+      <c r="E112" t="n">
+        <v>9782962800000</v>
+      </c>
+      <c r="F112" t="n">
+        <v>1.0184967e-41</v>
+      </c>
+      <c r="G112" t="n">
+        <v>55095886000000</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2.277254e-32</v>
+      </c>
+      <c r="I112" t="n">
+        <v>55095885000000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C113" t="n">
+        <v>10</v>
+      </c>
+      <c r="D113" t="n">
+        <v>19087163000000</v>
+      </c>
+      <c r="E113" t="n">
+        <v>19087161000000</v>
+      </c>
+      <c r="F113" t="n">
+        <v>1.0415772e-41</v>
+      </c>
+      <c r="G113" t="n">
+        <v>55094765000000</v>
+      </c>
+      <c r="H113" t="n">
+        <v>3.6787287e-32</v>
+      </c>
+      <c r="I113" t="n">
+        <v>55094764000000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C114" t="n">
+        <v>15</v>
+      </c>
+      <c r="D114" t="n">
+        <v>22612112000000</v>
+      </c>
+      <c r="E114" t="n">
+        <v>22612110000000</v>
+      </c>
+      <c r="F114" t="n">
+        <v>1.0455269e-41</v>
+      </c>
+      <c r="G114" t="n">
+        <v>55094576000000</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3.9148068e-43</v>
+      </c>
+      <c r="I114" t="n">
+        <v>55094574000000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C115" t="n">
+        <v>20</v>
+      </c>
+      <c r="D115" t="n">
+        <v>24449488000000</v>
+      </c>
+      <c r="E115" t="n">
+        <v>24449486000000</v>
+      </c>
+      <c r="F115" t="n">
+        <v>1.0471133e-41</v>
+      </c>
+      <c r="G115" t="n">
+        <v>55094500000000</v>
+      </c>
+      <c r="H115" t="n">
+        <v>3.7955121e-43</v>
+      </c>
+      <c r="I115" t="n">
+        <v>55094498000000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C116" t="n">
+        <v>25</v>
+      </c>
+      <c r="D116" t="n">
+        <v>25575004000000</v>
+      </c>
+      <c r="E116" t="n">
+        <v>25575002000000</v>
+      </c>
+      <c r="F116" t="n">
+        <v>1.0479749e-41</v>
+      </c>
+      <c r="G116" t="n">
+        <v>55094459000000</v>
+      </c>
+      <c r="H116" t="n">
+        <v>3.7637291e-43</v>
+      </c>
+      <c r="I116" t="n">
+        <v>55094457000000</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C117" t="n">
+        <v>30</v>
+      </c>
+      <c r="D117" t="n">
+        <v>26334709000000</v>
+      </c>
+      <c r="E117" t="n">
+        <v>26334707000000</v>
+      </c>
+      <c r="F117" t="n">
+        <v>1.048517e-41</v>
+      </c>
+      <c r="G117" t="n">
+        <v>55094433000000</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3.7438833e-43</v>
+      </c>
+      <c r="I117" t="n">
+        <v>55094431000000</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C118" t="n">
+        <v>35</v>
+      </c>
+      <c r="D118" t="n">
+        <v>26881844000000</v>
+      </c>
+      <c r="E118" t="n">
+        <v>26881842000000</v>
+      </c>
+      <c r="F118" t="n">
+        <v>1.0488893e-41</v>
+      </c>
+      <c r="G118" t="n">
+        <v>55094415000000</v>
+      </c>
+      <c r="H118" t="n">
+        <v>3.7303208e-43</v>
+      </c>
+      <c r="I118" t="n">
+        <v>55094414000000</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C119" t="n">
+        <v>40</v>
+      </c>
+      <c r="D119" t="n">
+        <v>27294608000000</v>
+      </c>
+      <c r="E119" t="n">
+        <v>27294606000000</v>
+      </c>
+      <c r="F119" t="n">
+        <v>1.0491604e-41</v>
+      </c>
+      <c r="G119" t="n">
+        <v>55094402000000</v>
+      </c>
+      <c r="H119" t="n">
+        <v>3.7204803e-43</v>
+      </c>
+      <c r="I119" t="n">
+        <v>55094401000000</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C120" t="n">
+        <v>45</v>
+      </c>
+      <c r="D120" t="n">
+        <v>27617057000000</v>
+      </c>
+      <c r="E120" t="n">
+        <v>27617055000000</v>
+      </c>
+      <c r="F120" t="n">
+        <v>1.0493662e-41</v>
+      </c>
+      <c r="G120" t="n">
+        <v>55094392000000</v>
+      </c>
+      <c r="H120" t="n">
+        <v>3.7130281e-43</v>
+      </c>
+      <c r="I120" t="n">
+        <v>55094391000000</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C121" t="n">
+        <v>50</v>
+      </c>
+      <c r="D121" t="n">
+        <v>27875894000000</v>
+      </c>
+      <c r="E121" t="n">
+        <v>27875892000000</v>
+      </c>
+      <c r="F121" t="n">
+        <v>1.0495274e-41</v>
+      </c>
+      <c r="G121" t="n">
+        <v>55094385000000</v>
+      </c>
+      <c r="H121" t="n">
+        <v>3.7071998e-43</v>
+      </c>
+      <c r="I121" t="n">
+        <v>55094383000000</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C122" t="n">
+        <v>5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12305540000000</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12305540000000</v>
+      </c>
+      <c r="F122" t="n">
+        <v>1.0285582e-41</v>
+      </c>
+      <c r="G122" t="n">
+        <v>55095394000000</v>
+      </c>
+      <c r="H122" t="n">
+        <v>7.8659321e-33</v>
+      </c>
+      <c r="I122" t="n">
+        <v>55095393000000</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C123" t="n">
+        <v>10</v>
+      </c>
+      <c r="D123" t="n">
+        <v>21950236000000</v>
+      </c>
+      <c r="E123" t="n">
+        <v>21950234000000</v>
+      </c>
+      <c r="F123" t="n">
+        <v>1.0463704e-41</v>
+      </c>
+      <c r="G123" t="n">
+        <v>55094535000000</v>
+      </c>
+      <c r="H123" t="n">
+        <v>1.2644561e-32</v>
+      </c>
+      <c r="I123" t="n">
+        <v>55094534000000</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C124" t="n">
+        <v>15</v>
+      </c>
+      <c r="D124" t="n">
+        <v>25582416000000</v>
+      </c>
+      <c r="E124" t="n">
+        <v>25582414000000</v>
+      </c>
+      <c r="F124" t="n">
+        <v>1.0496514e-41</v>
+      </c>
+      <c r="G124" t="n">
+        <v>55094379000000</v>
+      </c>
+      <c r="H124" t="n">
+        <v>3.7105778e-43</v>
+      </c>
+      <c r="I124" t="n">
+        <v>55094377000000</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C125" t="n">
+        <v>20</v>
+      </c>
+      <c r="D125" t="n">
+        <v>27473472000000</v>
+      </c>
+      <c r="E125" t="n">
+        <v>27473469000000</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1.0510837e-41</v>
+      </c>
+      <c r="G125" t="n">
+        <v>55094310000000</v>
+      </c>
+      <c r="H125" t="n">
+        <v>3.651468e-43</v>
+      </c>
+      <c r="I125" t="n">
+        <v>55094309000000</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C126" t="n">
+        <v>25</v>
+      </c>
+      <c r="D126" t="n">
+        <v>28631399000000</v>
+      </c>
+      <c r="E126" t="n">
+        <v>28631396000000</v>
+      </c>
+      <c r="F126" t="n">
+        <v>1.0519006e-41</v>
+      </c>
+      <c r="G126" t="n">
+        <v>55094272000000</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3.6225846e-43</v>
+      </c>
+      <c r="I126" t="n">
+        <v>55094270000000</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C127" t="n">
+        <v>30</v>
+      </c>
+      <c r="D127" t="n">
+        <v>29412847000000</v>
+      </c>
+      <c r="E127" t="n">
+        <v>29412844000000</v>
+      </c>
+      <c r="F127" t="n">
+        <v>1.0524309e-41</v>
+      </c>
+      <c r="G127" t="n">
+        <v>55094246000000</v>
+      </c>
+      <c r="H127" t="n">
+        <v>3.6039689e-43</v>
+      </c>
+      <c r="I127" t="n">
+        <v>55094245000000</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C128" t="n">
+        <v>35</v>
+      </c>
+      <c r="D128" t="n">
+        <v>29975597000000</v>
+      </c>
+      <c r="E128" t="n">
+        <v>29975595000000</v>
+      </c>
+      <c r="F128" t="n">
+        <v>1.0528032e-41</v>
+      </c>
+      <c r="G128" t="n">
+        <v>55094229000000</v>
+      </c>
+      <c r="H128" t="n">
+        <v>3.590962e-43</v>
+      </c>
+      <c r="I128" t="n">
+        <v>55094227000000</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C129" t="n">
+        <v>40</v>
+      </c>
+      <c r="D129" t="n">
+        <v>30400128000000</v>
+      </c>
+      <c r="E129" t="n">
+        <v>30400126000000</v>
+      </c>
+      <c r="F129" t="n">
+        <v>1.0530788e-41</v>
+      </c>
+      <c r="G129" t="n">
+        <v>55094216000000</v>
+      </c>
+      <c r="H129" t="n">
+        <v>3.5813662e-43</v>
+      </c>
+      <c r="I129" t="n">
+        <v>55094214000000</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C130" t="n">
+        <v>45</v>
+      </c>
+      <c r="D130" t="n">
+        <v>30731765000000</v>
+      </c>
+      <c r="E130" t="n">
+        <v>30731763000000</v>
+      </c>
+      <c r="F130" t="n">
+        <v>1.0532909e-41</v>
+      </c>
+      <c r="G130" t="n">
+        <v>55094205000000</v>
+      </c>
+      <c r="H130" t="n">
+        <v>3.5739991e-43</v>
+      </c>
+      <c r="I130" t="n">
+        <v>55094204000000</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7000000000000001</v>
+      </c>
+      <c r="C131" t="n">
+        <v>50</v>
+      </c>
+      <c r="D131" t="n">
+        <v>30997978000000</v>
+      </c>
+      <c r="E131" t="n">
+        <v>30997975000000</v>
+      </c>
+      <c r="F131" t="n">
+        <v>1.0534591e-41</v>
+      </c>
+      <c r="G131" t="n">
+        <v>55094197000000</v>
+      </c>
+      <c r="H131" t="n">
+        <v>3.5681693e-43</v>
+      </c>
+      <c r="I131" t="n">
+        <v>55094196000000</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C132" t="n">
+        <v>5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>14990872000000</v>
+      </c>
+      <c r="E132" t="n">
+        <v>14990872000000</v>
+      </c>
+      <c r="F132" t="n">
+        <v>1.0367507e-41</v>
+      </c>
+      <c r="G132" t="n">
+        <v>55094997000000</v>
+      </c>
+      <c r="H132" t="n">
+        <v>2.5333935e-33</v>
+      </c>
+      <c r="I132" t="n">
+        <v>55094996000000</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C133" t="n">
+        <v>10</v>
+      </c>
+      <c r="D133" t="n">
+        <v>24952415000000</v>
+      </c>
+      <c r="E133" t="n">
+        <v>24952412000000</v>
+      </c>
+      <c r="F133" t="n">
+        <v>1.0504894e-41</v>
+      </c>
+      <c r="G133" t="n">
+        <v>55094339000000</v>
+      </c>
+      <c r="H133" t="n">
+        <v>4.0518702e-33</v>
+      </c>
+      <c r="I133" t="n">
+        <v>55094337000000</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C134" t="n">
+        <v>15</v>
+      </c>
+      <c r="D134" t="n">
+        <v>28685346000000</v>
+      </c>
+      <c r="E134" t="n">
+        <v>28685344000000</v>
+      </c>
+      <c r="F134" t="n">
+        <v>1.0534401e-41</v>
+      </c>
+      <c r="G134" t="n">
+        <v>55094198000000</v>
+      </c>
+      <c r="H134" t="n">
+        <v>3.5698317e-43</v>
+      </c>
+      <c r="I134" t="n">
+        <v>55094197000000</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C135" t="n">
+        <v>20</v>
+      </c>
+      <c r="D135" t="n">
+        <v>30626876000000</v>
+      </c>
+      <c r="E135" t="n">
+        <v>30626873000000</v>
+      </c>
+      <c r="F135" t="n">
+        <v>1.0548343e-41</v>
+      </c>
+      <c r="G135" t="n">
+        <v>55094132000000</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3.520904e-43</v>
+      </c>
+      <c r="I135" t="n">
+        <v>55094131000000</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C136" t="n">
+        <v>25</v>
+      </c>
+      <c r="D136" t="n">
+        <v>31815279000000</v>
+      </c>
+      <c r="E136" t="n">
+        <v>31815277000000</v>
+      </c>
+      <c r="F136" t="n">
+        <v>1.0556593e-41</v>
+      </c>
+      <c r="G136" t="n">
+        <v>55094093000000</v>
+      </c>
+      <c r="H136" t="n">
+        <v>3.4928777e-43</v>
+      </c>
+      <c r="I136" t="n">
+        <v>55094092000000</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C137" t="n">
+        <v>30</v>
+      </c>
+      <c r="D137" t="n">
+        <v>32617170000000</v>
+      </c>
+      <c r="E137" t="n">
+        <v>32617167000000</v>
+      </c>
+      <c r="F137" t="n">
+        <v>1.056206e-41</v>
+      </c>
+      <c r="G137" t="n">
+        <v>55094067000000</v>
+      </c>
+      <c r="H137" t="n">
+        <v>3.4744381e-43</v>
+      </c>
+      <c r="I137" t="n">
+        <v>55094066000000</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C138" t="n">
+        <v>35</v>
+      </c>
+      <c r="D138" t="n">
+        <v>33194600000000</v>
+      </c>
+      <c r="E138" t="n">
+        <v>33194597000000</v>
+      </c>
+      <c r="F138" t="n">
+        <v>1.056595e-41</v>
+      </c>
+      <c r="G138" t="n">
+        <v>55094049000000</v>
+      </c>
+      <c r="H138" t="n">
+        <v>3.4613855e-43</v>
+      </c>
+      <c r="I138" t="n">
+        <v>55094047000000</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C139" t="n">
+        <v>40</v>
+      </c>
+      <c r="D139" t="n">
+        <v>33630189000000</v>
+      </c>
+      <c r="E139" t="n">
+        <v>33630187000000</v>
+      </c>
+      <c r="F139" t="n">
+        <v>1.0568858e-41</v>
+      </c>
+      <c r="G139" t="n">
+        <v>55094035000000</v>
+      </c>
+      <c r="H139" t="n">
+        <v>3.4516624e-43</v>
+      </c>
+      <c r="I139" t="n">
+        <v>55094034000000</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C140" t="n">
+        <v>45</v>
+      </c>
+      <c r="D140" t="n">
+        <v>33970460000000</v>
+      </c>
+      <c r="E140" t="n">
+        <v>33970458000000</v>
+      </c>
+      <c r="F140" t="n">
+        <v>1.0571113e-41</v>
+      </c>
+      <c r="G140" t="n">
+        <v>55094024000000</v>
+      </c>
+      <c r="H140" t="n">
+        <v>3.4441425e-43</v>
+      </c>
+      <c r="I140" t="n">
+        <v>55094023000000</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C141" t="n">
+        <v>50</v>
+      </c>
+      <c r="D141" t="n">
+        <v>34243602000000</v>
+      </c>
+      <c r="E141" t="n">
+        <v>34243599000000</v>
+      </c>
+      <c r="F141" t="n">
+        <v>1.0572913e-41</v>
+      </c>
+      <c r="G141" t="n">
+        <v>55094016000000</v>
+      </c>
+      <c r="H141" t="n">
+        <v>3.4381556e-43</v>
+      </c>
+      <c r="I141" t="n">
+        <v>55094015000000</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C142" t="n">
+        <v>5</v>
+      </c>
+      <c r="D142" t="n">
+        <v>17837451000000</v>
+      </c>
+      <c r="E142" t="n">
+        <v>17837451000000</v>
+      </c>
+      <c r="F142" t="n">
+        <v>1.0432251e-41</v>
+      </c>
+      <c r="G142" t="n">
+        <v>55094686000000</v>
+      </c>
+      <c r="H142" t="n">
+        <v>8.6291684e-34</v>
+      </c>
+      <c r="I142" t="n">
+        <v>55094685000000</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C143" t="n">
+        <v>10</v>
+      </c>
+      <c r="D143" t="n">
+        <v>28094133000000</v>
+      </c>
+      <c r="E143" t="n">
+        <v>28094131000000</v>
+      </c>
+      <c r="F143" t="n">
+        <v>1.0542332e-41</v>
+      </c>
+      <c r="G143" t="n">
+        <v>55094161000000</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1.3731328e-33</v>
+      </c>
+      <c r="I143" t="n">
+        <v>55094159000000</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C144" t="n">
+        <v>15</v>
+      </c>
+      <c r="D144" t="n">
+        <v>31921417000000</v>
+      </c>
+      <c r="E144" t="n">
+        <v>31921415000000</v>
+      </c>
+      <c r="F144" t="n">
+        <v>1.057091e-41</v>
+      </c>
+      <c r="G144" t="n">
+        <v>55094025000000</v>
+      </c>
+      <c r="H144" t="n">
+        <v>3.444961e-43</v>
+      </c>
+      <c r="I144" t="n">
+        <v>55094024000000</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C145" t="n">
+        <v>20</v>
+      </c>
+      <c r="D145" t="n">
+        <v>33910227000000</v>
+      </c>
+      <c r="E145" t="n">
+        <v>33910225000000</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.0585175e-41</v>
+      </c>
+      <c r="G145" t="n">
+        <v>55093958000000</v>
+      </c>
+      <c r="H145" t="n">
+        <v>3.39766e-43</v>
+      </c>
+      <c r="I145" t="n">
+        <v>55093957000000</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C146" t="n">
+        <v>25</v>
+      </c>
+      <c r="D146" t="n">
+        <v>35127174000000</v>
+      </c>
+      <c r="E146" t="n">
+        <v>35127172000000</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.0593786e-41</v>
+      </c>
+      <c r="G146" t="n">
+        <v>55093917000000</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3.3695336e-43</v>
+      </c>
+      <c r="I146" t="n">
+        <v>55093916000000</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C147" t="n">
+        <v>30</v>
+      </c>
+      <c r="D147" t="n">
+        <v>35948205000000</v>
+      </c>
+      <c r="E147" t="n">
+        <v>35948203000000</v>
+      </c>
+      <c r="F147" t="n">
+        <v>1.0599551e-41</v>
+      </c>
+      <c r="G147" t="n">
+        <v>55093890000000</v>
+      </c>
+      <c r="H147" t="n">
+        <v>3.3508494e-43</v>
+      </c>
+      <c r="I147" t="n">
+        <v>55093889000000</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C148" t="n">
+        <v>35</v>
+      </c>
+      <c r="D148" t="n">
+        <v>36539377000000</v>
+      </c>
+      <c r="E148" t="n">
+        <v>36539374000000</v>
+      </c>
+      <c r="F148" t="n">
+        <v>1.0603676e-41</v>
+      </c>
+      <c r="G148" t="n">
+        <v>55093870000000</v>
+      </c>
+      <c r="H148" t="n">
+        <v>3.3375493e-43</v>
+      </c>
+      <c r="I148" t="n">
+        <v>55093869000000</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C149" t="n">
+        <v>40</v>
+      </c>
+      <c r="D149" t="n">
+        <v>36985316000000</v>
+      </c>
+      <c r="E149" t="n">
+        <v>36985314000000</v>
+      </c>
+      <c r="F149" t="n">
+        <v>1.0606772e-41</v>
+      </c>
+      <c r="G149" t="n">
+        <v>55093856000000</v>
+      </c>
+      <c r="H149" t="n">
+        <v>3.3276045e-43</v>
+      </c>
+      <c r="I149" t="n">
+        <v>55093855000000</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C150" t="n">
+        <v>45</v>
+      </c>
+      <c r="D150" t="n">
+        <v>37333666000000</v>
+      </c>
+      <c r="E150" t="n">
+        <v>37333663000000</v>
+      </c>
+      <c r="F150" t="n">
+        <v>1.060918e-41</v>
+      </c>
+      <c r="G150" t="n">
+        <v>55093845000000</v>
+      </c>
+      <c r="H150" t="n">
+        <v>3.3198915e-43</v>
+      </c>
+      <c r="I150" t="n">
+        <v>55093843000000</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C151" t="n">
+        <v>50</v>
+      </c>
+      <c r="D151" t="n">
+        <v>37613290000000</v>
+      </c>
+      <c r="E151" t="n">
+        <v>37613287000000</v>
+      </c>
+      <c r="F151" t="n">
+        <v>1.0611106e-41</v>
+      </c>
+      <c r="G151" t="n">
+        <v>55093835000000</v>
+      </c>
+      <c r="H151" t="n">
+        <v>3.3137373e-43</v>
+      </c>
+      <c r="I151" t="n">
+        <v>55093834000000</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C152" t="n">
+        <v>5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>20844625000000</v>
+      </c>
+      <c r="E152" t="n">
+        <v>20844625000000</v>
+      </c>
+      <c r="F152" t="n">
+        <v>1.048371e-41</v>
+      </c>
+      <c r="G152" t="n">
+        <v>55094440000000</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3.1785977e-34</v>
+      </c>
+      <c r="I152" t="n">
+        <v>55094438000000</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C153" t="n">
+        <v>10</v>
+      </c>
+      <c r="D153" t="n">
+        <v>31375845000000</v>
+      </c>
+      <c r="E153" t="n">
+        <v>31375843000000</v>
+      </c>
+      <c r="F153" t="n">
+        <v>1.0578257e-41</v>
+      </c>
+      <c r="G153" t="n">
+        <v>55093991000000</v>
+      </c>
+      <c r="H153" t="n">
+        <v>5.0326917e-34</v>
+      </c>
+      <c r="I153" t="n">
+        <v>55093989000000</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C154" t="n">
+        <v>15</v>
+      </c>
+      <c r="D154" t="n">
+        <v>35291145000000</v>
+      </c>
+      <c r="E154" t="n">
+        <v>35291142000000</v>
+      </c>
+      <c r="F154" t="n">
+        <v>1.0607323e-41</v>
+      </c>
+      <c r="G154" t="n">
+        <v>55093853000000</v>
+      </c>
+      <c r="H154" t="n">
+        <v>3.3258605e-43</v>
+      </c>
+      <c r="I154" t="n">
+        <v>55093852000000</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C155" t="n">
+        <v>20</v>
+      </c>
+      <c r="D155" t="n">
+        <v>37324053000000</v>
+      </c>
+      <c r="E155" t="n">
+        <v>37324050000000</v>
+      </c>
+      <c r="F155" t="n">
+        <v>1.0622218e-41</v>
+      </c>
+      <c r="G155" t="n">
+        <v>55093783000000</v>
+      </c>
+      <c r="H155" t="n">
+        <v>3.2784749e-43</v>
+      </c>
+      <c r="I155" t="n">
+        <v>55093782000000</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C156" t="n">
+        <v>25</v>
+      </c>
+      <c r="D156" t="n">
+        <v>38567612000000</v>
+      </c>
+      <c r="E156" t="n">
+        <v>38567609000000</v>
+      </c>
+      <c r="F156" t="n">
+        <v>1.0631268e-41</v>
+      </c>
+      <c r="G156" t="n">
+        <v>55093740000000</v>
+      </c>
+      <c r="H156" t="n">
+        <v>3.2500586e-43</v>
+      </c>
+      <c r="I156" t="n">
+        <v>55093739000000</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C157" t="n">
+        <v>30</v>
+      </c>
+      <c r="D157" t="n">
+        <v>39406483000000</v>
+      </c>
+      <c r="E157" t="n">
+        <v>39406481000000</v>
+      </c>
+      <c r="F157" t="n">
+        <v>1.0637337e-41</v>
+      </c>
+      <c r="G157" t="n">
+        <v>55093712000000</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3.2311546e-43</v>
+      </c>
+      <c r="I157" t="n">
+        <v>55093711000000</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C158" t="n">
+        <v>35</v>
+      </c>
+      <c r="D158" t="n">
+        <v>40010458000000</v>
+      </c>
+      <c r="E158" t="n">
+        <v>40010456000000</v>
+      </c>
+      <c r="F158" t="n">
+        <v>1.0641684e-41</v>
+      </c>
+      <c r="G158" t="n">
+        <v>55093692000000</v>
+      </c>
+      <c r="H158" t="n">
+        <v>3.2176889e-43</v>
+      </c>
+      <c r="I158" t="n">
+        <v>55093690000000</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C159" t="n">
+        <v>40</v>
+      </c>
+      <c r="D159" t="n">
+        <v>40466039000000</v>
+      </c>
+      <c r="E159" t="n">
+        <v>40466036000000</v>
+      </c>
+      <c r="F159" t="n">
+        <v>1.0644948e-41</v>
+      </c>
+      <c r="G159" t="n">
+        <v>55093676000000</v>
+      </c>
+      <c r="H159" t="n">
+        <v>3.2076185e-43</v>
+      </c>
+      <c r="I159" t="n">
+        <v>55093675000000</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C160" t="n">
+        <v>45</v>
+      </c>
+      <c r="D160" t="n">
+        <v>40821912000000</v>
+      </c>
+      <c r="E160" t="n">
+        <v>40821909000000</v>
+      </c>
+      <c r="F160" t="n">
+        <v>1.0647488e-41</v>
+      </c>
+      <c r="G160" t="n">
+        <v>55093664000000</v>
+      </c>
+      <c r="H160" t="n">
+        <v>3.1998058e-43</v>
+      </c>
+      <c r="I160" t="n">
+        <v>55093663000000</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C161" t="n">
+        <v>50</v>
+      </c>
+      <c r="D161" t="n">
+        <v>41107572000000</v>
+      </c>
+      <c r="E161" t="n">
+        <v>41107570000000</v>
+      </c>
+      <c r="F161" t="n">
+        <v>1.0649519e-41</v>
+      </c>
+      <c r="G161" t="n">
+        <v>55093655000000</v>
+      </c>
+      <c r="H161" t="n">
+        <v>3.1935734e-43</v>
+      </c>
+      <c r="I161" t="n">
+        <v>55093653000000</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C162" t="n">
+        <v>5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>24012136000000</v>
+      </c>
+      <c r="E162" t="n">
+        <v>24012136000000</v>
+      </c>
+      <c r="F162" t="n">
+        <v>1.0526346e-41</v>
+      </c>
+      <c r="G162" t="n">
+        <v>55094237000000</v>
+      </c>
+      <c r="H162" t="n">
+        <v>1.2089612e-34</v>
+      </c>
+      <c r="I162" t="n">
+        <v>55094235000000</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C163" t="n">
+        <v>10</v>
+      </c>
+      <c r="D163" t="n">
+        <v>34798018000000</v>
+      </c>
+      <c r="E163" t="n">
+        <v>34798015000000</v>
+      </c>
+      <c r="F163" t="n">
+        <v>1.0614136e-41</v>
+      </c>
+      <c r="G163" t="n">
+        <v>55093821000000</v>
+      </c>
+      <c r="H163" t="n">
+        <v>1.9048325e-34</v>
+      </c>
+      <c r="I163" t="n">
+        <v>55093820000000</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C164" t="n">
+        <v>15</v>
+      </c>
+      <c r="D164" t="n">
+        <v>38795046000000</v>
+      </c>
+      <c r="E164" t="n">
+        <v>38795043000000</v>
+      </c>
+      <c r="F164" t="n">
+        <v>1.0644287e-41</v>
+      </c>
+      <c r="G164" t="n">
+        <v>55093679000000</v>
+      </c>
+      <c r="H164" t="n">
+        <v>3.2096615e-43</v>
+      </c>
+      <c r="I164" t="n">
+        <v>55093678000000</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C165" t="n">
+        <v>20</v>
+      </c>
+      <c r="D165" t="n">
+        <v>40868879000000</v>
+      </c>
+      <c r="E165" t="n">
+        <v>40868877000000</v>
+      </c>
+      <c r="F165" t="n">
+        <v>1.0659807e-41</v>
+      </c>
+      <c r="G165" t="n">
+        <v>55093606000000</v>
+      </c>
+      <c r="H165" t="n">
+        <v>3.1622125e-43</v>
+      </c>
+      <c r="I165" t="n">
+        <v>55093605000000</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C166" t="n">
+        <v>25</v>
+      </c>
+      <c r="D166" t="n">
+        <v>42137124000000</v>
+      </c>
+      <c r="E166" t="n">
+        <v>42137121000000</v>
+      </c>
+      <c r="F166" t="n">
+        <v>1.0669212e-41</v>
+      </c>
+      <c r="G166" t="n">
+        <v>55093562000000</v>
+      </c>
+      <c r="H166" t="n">
+        <v>3.1338344e-43</v>
+      </c>
+      <c r="I166" t="n">
+        <v>55093561000000</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C167" t="n">
+        <v>30</v>
+      </c>
+      <c r="D167" t="n">
+        <v>42992536000000</v>
+      </c>
+      <c r="E167" t="n">
+        <v>42992534000000</v>
+      </c>
+      <c r="F167" t="n">
+        <v>1.0675503e-41</v>
+      </c>
+      <c r="G167" t="n">
+        <v>55093533000000</v>
+      </c>
+      <c r="H167" t="n">
+        <v>3.1150098e-43</v>
+      </c>
+      <c r="I167" t="n">
+        <v>55093531000000</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C168" t="n">
+        <v>35</v>
+      </c>
+      <c r="D168" t="n">
+        <v>43608378000000</v>
+      </c>
+      <c r="E168" t="n">
+        <v>43608376000000</v>
+      </c>
+      <c r="F168" t="n">
+        <v>1.068e-41</v>
+      </c>
+      <c r="G168" t="n">
+        <v>55093512000000</v>
+      </c>
+      <c r="H168" t="n">
+        <v>3.1016316e-43</v>
+      </c>
+      <c r="I168" t="n">
+        <v>55093510000000</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C169" t="n">
+        <v>40</v>
+      </c>
+      <c r="D169" t="n">
+        <v>44072892000000</v>
+      </c>
+      <c r="E169" t="n">
+        <v>44072889000000</v>
+      </c>
+      <c r="F169" t="n">
+        <v>1.0683371e-41</v>
+      </c>
+      <c r="G169" t="n">
+        <v>55093496000000</v>
+      </c>
+      <c r="H169" t="n">
+        <v>3.0916424e-43</v>
+      </c>
+      <c r="I169" t="n">
+        <v>55093495000000</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C170" t="n">
+        <v>45</v>
+      </c>
+      <c r="D170" t="n">
+        <v>44435734000000</v>
+      </c>
+      <c r="E170" t="n">
+        <v>44435732000000</v>
+      </c>
+      <c r="F170" t="n">
+        <v>1.068599e-41</v>
+      </c>
+      <c r="G170" t="n">
+        <v>55093484000000</v>
+      </c>
+      <c r="H170" t="n">
+        <v>3.0839068e-43</v>
+      </c>
+      <c r="I170" t="n">
+        <v>55093482000000</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C171" t="n">
+        <v>50</v>
+      </c>
+      <c r="D171" t="n">
+        <v>44726985000000</v>
+      </c>
+      <c r="E171" t="n">
+        <v>44726982000000</v>
+      </c>
+      <c r="F171" t="n">
+        <v>1.0688082e-41</v>
+      </c>
+      <c r="G171" t="n">
+        <v>55093474000000</v>
+      </c>
+      <c r="H171" t="n">
+        <v>3.0777408e-43</v>
+      </c>
+      <c r="I171" t="n">
+        <v>55093473000000</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C172" t="n">
+        <v>5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>27339938000000</v>
+      </c>
+      <c r="E172" t="n">
+        <v>27339938000000</v>
+      </c>
+      <c r="F172" t="n">
+        <v>1.0564115e-41</v>
+      </c>
+      <c r="G172" t="n">
+        <v>55094057000000</v>
+      </c>
+      <c r="H172" t="n">
+        <v>4.4368015e-35</v>
+      </c>
+      <c r="I172" t="n">
+        <v>55094056000000</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C173" t="n">
+        <v>10</v>
+      </c>
+      <c r="D173" t="n">
+        <v>38361126000000</v>
+      </c>
+      <c r="E173" t="n">
+        <v>38361123000000</v>
+      </c>
+      <c r="F173" t="n">
+        <v>1.0650725e-41</v>
+      </c>
+      <c r="G173" t="n">
+        <v>55093649000000</v>
+      </c>
+      <c r="H173" t="n">
+        <v>6.9578304e-35</v>
+      </c>
+      <c r="I173" t="n">
+        <v>55093648000000</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C174" t="n">
+        <v>15</v>
+      </c>
+      <c r="D174" t="n">
+        <v>42433641000000</v>
+      </c>
+      <c r="E174" t="n">
+        <v>42433638000000</v>
+      </c>
+      <c r="F174" t="n">
+        <v>1.0681915e-41</v>
+      </c>
+      <c r="G174" t="n">
+        <v>55093503000000</v>
+      </c>
+      <c r="H174" t="n">
+        <v>3.0959516e-43</v>
+      </c>
+      <c r="I174" t="n">
+        <v>55093501000000</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C175" t="n">
+        <v>20</v>
+      </c>
+      <c r="D175" t="n">
+        <v>44545239000000</v>
+      </c>
+      <c r="E175" t="n">
+        <v>44545236000000</v>
+      </c>
+      <c r="F175" t="n">
+        <v>1.0697826e-41</v>
+      </c>
+      <c r="G175" t="n">
+        <v>55093428000000</v>
+      </c>
+      <c r="H175" t="n">
+        <v>3.0492101e-43</v>
+      </c>
+      <c r="I175" t="n">
+        <v>55093427000000</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C176" t="n">
+        <v>25</v>
+      </c>
+      <c r="D176" t="n">
+        <v>45836246000000</v>
+      </c>
+      <c r="E176" t="n">
+        <v>45836243000000</v>
+      </c>
+      <c r="F176" t="n">
+        <v>1.0707397e-41</v>
+      </c>
+      <c r="G176" t="n">
+        <v>55093384000000</v>
+      </c>
+      <c r="H176" t="n">
+        <v>3.0214657e-43</v>
+      </c>
+      <c r="I176" t="n">
+        <v>55093382000000</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C177" t="n">
+        <v>30</v>
+      </c>
+      <c r="D177" t="n">
+        <v>46706903000000</v>
+      </c>
+      <c r="E177" t="n">
+        <v>46706900000000</v>
+      </c>
+      <c r="F177" t="n">
+        <v>1.0713767e-41</v>
+      </c>
+      <c r="G177" t="n">
+        <v>55093354000000</v>
+      </c>
+      <c r="H177" t="n">
+        <v>3.0031567e-43</v>
+      </c>
+      <c r="I177" t="n">
+        <v>55093353000000</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C178" t="n">
+        <v>35</v>
+      </c>
+      <c r="D178" t="n">
+        <v>47333677000000</v>
+      </c>
+      <c r="E178" t="n">
+        <v>47333674000000</v>
+      </c>
+      <c r="F178" t="n">
+        <v>1.0718303e-41</v>
+      </c>
+      <c r="G178" t="n">
+        <v>55093333000000</v>
+      </c>
+      <c r="H178" t="n">
+        <v>2.9901922e-43</v>
+      </c>
+      <c r="I178" t="n">
+        <v>55093331000000</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C179" t="n">
+        <v>40</v>
+      </c>
+      <c r="D179" t="n">
+        <v>47806417000000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>47806414000000</v>
+      </c>
+      <c r="F179" t="n">
+        <v>1.0721694e-41</v>
+      </c>
+      <c r="G179" t="n">
+        <v>55093317000000</v>
+      </c>
+      <c r="H179" t="n">
+        <v>2.9805395e-43</v>
+      </c>
+      <c r="I179" t="n">
+        <v>55093316000000</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C180" t="n">
+        <v>45</v>
+      </c>
+      <c r="D180" t="n">
+        <v>48175675000000</v>
+      </c>
+      <c r="E180" t="n">
+        <v>48175673000000</v>
+      </c>
+      <c r="F180" t="n">
+        <v>1.0724324e-41</v>
+      </c>
+      <c r="G180" t="n">
+        <v>55093305000000</v>
+      </c>
+      <c r="H180" t="n">
+        <v>2.9730776e-43</v>
+      </c>
+      <c r="I180" t="n">
+        <v>55093303000000</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.9500000000000001</v>
+      </c>
+      <c r="C181" t="n">
+        <v>50</v>
+      </c>
+      <c r="D181" t="n">
+        <v>48472071000000</v>
+      </c>
+      <c r="E181" t="n">
+        <v>48472068000000</v>
+      </c>
+      <c r="F181" t="n">
+        <v>1.0726422e-41</v>
+      </c>
+      <c r="G181" t="n">
+        <v>55093295000000</v>
+      </c>
+      <c r="H181" t="n">
+        <v>2.9671389e-43</v>
+      </c>
+      <c r="I181" t="n">
+        <v>55093293000000</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>1</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5</v>
+      </c>
+      <c r="D182" t="n">
+        <v>30828106000000</v>
+      </c>
+      <c r="E182" t="n">
+        <v>30828106000000</v>
+      </c>
+      <c r="F182" t="n">
+        <v>1.060002e-41</v>
+      </c>
+      <c r="G182" t="n">
+        <v>55093888000000</v>
+      </c>
+      <c r="H182" t="n">
+        <v>1.4985242e-35</v>
+      </c>
+      <c r="I182" t="n">
+        <v>55093886000000</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>1</v>
+      </c>
+      <c r="C183" t="n">
+        <v>10</v>
+      </c>
+      <c r="D183" t="n">
+        <v>42065657000000</v>
+      </c>
+      <c r="E183" t="n">
+        <v>42065654000000</v>
+      </c>
+      <c r="F183" t="n">
+        <v>1.0688183e-41</v>
+      </c>
+      <c r="G183" t="n">
+        <v>55093473000000</v>
+      </c>
+      <c r="H183" t="n">
+        <v>2.3395023e-35</v>
+      </c>
+      <c r="I183" t="n">
+        <v>55093472000000</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>1</v>
+      </c>
+      <c r="C184" t="n">
+        <v>15</v>
+      </c>
+      <c r="D184" t="n">
+        <v>46207457000000</v>
+      </c>
+      <c r="E184" t="n">
+        <v>46207454000000</v>
+      </c>
+      <c r="F184" t="n">
+        <v>1.0719912e-41</v>
+      </c>
+      <c r="G184" t="n">
+        <v>55093325000000</v>
+      </c>
+      <c r="H184" t="n">
+        <v>2.9856089e-43</v>
+      </c>
+      <c r="I184" t="n">
+        <v>55093324000000</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>1</v>
+      </c>
+      <c r="C185" t="n">
+        <v>20</v>
+      </c>
+      <c r="D185" t="n">
+        <v>48353670000000</v>
+      </c>
+      <c r="E185" t="n">
+        <v>48353667000000</v>
+      </c>
+      <c r="F185" t="n">
+        <v>1.073584e-41</v>
+      </c>
+      <c r="G185" t="n">
+        <v>55093251000000</v>
+      </c>
+      <c r="H185" t="n">
+        <v>2.9406455e-43</v>
+      </c>
+      <c r="I185" t="n">
+        <v>55093250000000</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>1</v>
+      </c>
+      <c r="C186" t="n">
+        <v>25</v>
+      </c>
+      <c r="D186" t="n">
+        <v>49665521000000</v>
+      </c>
+      <c r="E186" t="n">
+        <v>49665518000000</v>
+      </c>
+      <c r="F186" t="n">
+        <v>1.074533e-41</v>
+      </c>
+      <c r="G186" t="n">
+        <v>55093207000000</v>
+      </c>
+      <c r="H186" t="n">
+        <v>2.9142101e-43</v>
+      </c>
+      <c r="I186" t="n">
+        <v>55093205000000</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>1</v>
+      </c>
+      <c r="C187" t="n">
+        <v>30</v>
+      </c>
+      <c r="D187" t="n">
+        <v>50550128000000</v>
+      </c>
+      <c r="E187" t="n">
+        <v>50550125000000</v>
+      </c>
+      <c r="F187" t="n">
+        <v>1.0751606e-41</v>
+      </c>
+      <c r="G187" t="n">
+        <v>55093178000000</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2.8968696e-43</v>
+      </c>
+      <c r="I187" t="n">
+        <v>55093176000000</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>1</v>
+      </c>
+      <c r="C188" t="n">
+        <v>35</v>
+      </c>
+      <c r="D188" t="n">
+        <v>51186901000000</v>
+      </c>
+      <c r="E188" t="n">
+        <v>51186898000000</v>
+      </c>
+      <c r="F188" t="n">
+        <v>1.0756057e-41</v>
+      </c>
+      <c r="G188" t="n">
+        <v>55093157000000</v>
+      </c>
+      <c r="H188" t="n">
+        <v>2.8846407e-43</v>
+      </c>
+      <c r="I188" t="n">
+        <v>55093156000000</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>1</v>
+      </c>
+      <c r="C189" t="n">
+        <v>40</v>
+      </c>
+      <c r="D189" t="n">
+        <v>51667162000000</v>
+      </c>
+      <c r="E189" t="n">
+        <v>51667159000000</v>
+      </c>
+      <c r="F189" t="n">
+        <v>1.0759375e-41</v>
+      </c>
+      <c r="G189" t="n">
+        <v>55093141000000</v>
+      </c>
+      <c r="H189" t="n">
+        <v>2.8755622e-43</v>
+      </c>
+      <c r="I189" t="n">
+        <v>55093140000000</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>1</v>
+      </c>
+      <c r="C190" t="n">
+        <v>45</v>
+      </c>
+      <c r="D190" t="n">
+        <v>52042286000000</v>
+      </c>
+      <c r="E190" t="n">
+        <v>52042283000000</v>
+      </c>
+      <c r="F190" t="n">
+        <v>1.0761942e-41</v>
+      </c>
+      <c r="G190" t="n">
+        <v>55093129000000</v>
+      </c>
+      <c r="H190" t="n">
+        <v>2.8685596e-43</v>
+      </c>
+      <c r="I190" t="n">
+        <v>55093128000000</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>1</v>
+      </c>
+      <c r="C191" t="n">
+        <v>50</v>
+      </c>
+      <c r="D191" t="n">
+        <v>52343383000000</v>
+      </c>
+      <c r="E191" t="n">
+        <v>52343380000000</v>
+      </c>
+      <c r="F191" t="n">
+        <v>1.0763987e-41</v>
+      </c>
+      <c r="G191" t="n">
+        <v>55093120000000</v>
+      </c>
+      <c r="H191" t="n">
+        <v>2.862996e-43</v>
+      </c>
+      <c r="I191" t="n">
+        <v>55093119000000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
